--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
   <si>
     <t>序号</t>
   </si>
@@ -215,9 +215,6 @@
   </si>
   <si>
     <t>https://item.taobao.com/item.htm?spm=tbpc.boughtlist.suborder_itemtitle.1.12492e8dAwCxKM&amp;id=630808292950&amp;pisk=gprTs5D1d6fGaYZtKR7HilnkVyWnBw2aL5yWmjcMlWFLM8pgSqcmlmFzwqtc7c0xDWG3jf2ifxgbi7ai1PcDDoFU6hxmfSjxG8zF3fDgjKHbR5K0SRcgJKnaxPxms1oYh7mAZ_jlqRyZYm1lZXrvVsnSUxM6if9BRmDY-RTMFRyZ0j9HGa4QQKFhug9shj6KAxH6lmMjhJ6KHYhjcfgXOeMSOmiX5FTIdxktGjgbGeGI3AGXGqTsRMMohmT_GVsCpxlICmijMt5xOdGDDzfxdedv5g-pvkHtWjKmPneQq30xNtc90nltsVLgCXKXckUhggbj1aJngccanAFV4hoskPNtdmIvAcFaCogLm6vIyDGxPl0pFHg36x3Sc2pXcJnU8SMnVgOKLywgllP9HnMaju0xa2BX0qmQq4a76KWzdcMbg4rcahl_h8rzr0IvAc3f4Squ2GAyZbHD59BpuEusLy6btD2BkU3IpbXODE8q89kKZ9BpuEusLvhlBtL2u2WF.</t>
-  </si>
-  <si>
-    <t>gprTs5D1d6fGaYZtKR7HilnkVyWnBw2aL5yWmjcMlWFLM8pgSqcmlmFzwqtc7c0xDWG3jf2ifxgbi7ai1PcDDoFU6hxmfSjxG8zF3fDgjKHbR5K0SRcgJKnaxPxms1oYh7mAZ_jlqRyZYm1lZXrvVsnSUxM6if9BRmDY</t>
   </si>
 </sst>
 </file>
@@ -230,7 +227,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,19 +255,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF7A7A7A"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -750,134 +734,134 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -905,10 +889,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1228,7 +1209,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1464,10 +1445,10 @@
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="5">
@@ -1482,10 +1463,10 @@
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="5">
@@ -1500,10 +1481,10 @@
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="5">
@@ -1518,10 +1499,10 @@
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>43</v>
       </c>
       <c r="D16" s="5">
@@ -1536,10 +1517,10 @@
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D17" s="5">
@@ -1554,10 +1535,10 @@
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>49</v>
       </c>
       <c r="D18" s="5">
@@ -1572,10 +1553,10 @@
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D19" s="5">
@@ -1590,10 +1571,10 @@
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>52</v>
       </c>
       <c r="D20" s="5">
@@ -1608,33 +1589,33 @@
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>54</v>
       </c>
       <c r="D21" s="5">
         <v>1</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="11"/>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" ht="15" customHeight="1" spans="1:6">
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D22" s="5">
         <v>2</v>
       </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="11"/>
+      <c r="F22" s="10"/>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:6">
       <c r="A23" s="5">
@@ -1643,7 +1624,7 @@
       <c r="B23" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>57</v>
       </c>
       <c r="D23" s="5">
@@ -1686,8 +1667,8 @@
         <v>2</v>
       </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="11" t="s">
-        <v>62</v>
+      <c r="F25" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1712,7 +1693,8 @@
     <hyperlink ref="F20" r:id="rId15" display="https://item.taobao.com/item.htm?spm=tbpc.boughtlist.suborder_itemtitle.1.1e082e8dJs5w32&amp;id=739009813395&amp;pisk=gS4g6qGIAlo6EvXKvyg14d0y43sLXVgbu-LxHqHVYvkCGhKO1ml4i-4YXSkxo-20nAnVCVU0K7NA1rCs7Zc4eJ0Y6AHYKs2TGEB1cVL2nRNPC5HA1rDqKRymc1Mx3x2YglCdyaF_1qgqnTQRyyS8CXrDuFlVgBltofrLbhEz1qgVnBLV2aV_CJRJHhlqT6cxMK843fJELvGvbxyqQDJEZbgqu-kaTBl-snRwuhlFtblX_xu2bBuEgjOwb-uVtWkIgqla3ql0aOkauPUFpI7wJQZholGijYPZI5eL83gkfJM35yaosoZu_nT2uycijyoyb7PmXoPSVPFOoegTZkuEs-7PQ2Pzx7ngSTYthm43Io2OMnG3mSzS54AV7W0iI0zifITuUWV42D4daagi7Arx5SdlBW4gB5a3MI-ESVEnqP0PPdkYv74mir6f-8Va4-rc4Exe4F0wlX5Y8ntjbXGneHztUssSUOdNt6xohclI_YChtntjbXGne6fHqSiZOfkR."/>
     <hyperlink ref="F14" r:id="rId16" display="https://detail.tmall.com/item.htm?id=40189700729&amp;pisk=gJG_s6cDkGj6j-PAlRYFOvo2Z7Vb5eRyMZaxrqCNk5FThs3ZVr543d4fGkgJSlJDImMIDD2aXoy4GrizxV52SV8XGq38XSkabrnEcDXZbjrqYIgoVR5Zkj7iK0uR_fJggsNgiSKy4QRr7VV0MGdi8PsgJzU6grETD5Vd4l_weQRrS2_aWUupaj8X6P41HsnYBJQLrkUTkOU9RJUzkSCTH1BdvkqLMreYMyBLkr6OHRnYJ2U4WNITMSILpPrLDSFxD2LQlkExMxvQJdZE5Fr6zQUBBBM3AsCxOyt08V_1dol45YqSWVvkEE4_Cu3TAhCJWBwKo-GcoswZWYm0ycI9fS3QP0aSfK70fv3r_x36O3FZsVH8HbKcH0Nsc8hTdZCjS5r3OyhJuTqEOlox1JLPN-PKa8FtLpxa35aSDfm1lsn-84lgKjt5voDarWUsDQKC4zCzVDHGhwwlGyZyRe6cnVt1Ybz4fVUbBy4hzeTCUt2T-yZyRe6cnRU3-Q8BRTWc.&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.66b22e8dWKj7Gf"/>
     <hyperlink ref="F13" r:id="rId16" display="https://detail.tmall.com/item.htm?id=40189700729&amp;pisk=gJG_s6cDkGj6j-PAlRYFOvo2Z7Vb5eRyMZaxrqCNk5FThs3ZVr543d4fGkgJSlJDImMIDD2aXoy4GrizxV52SV8XGq38XSkabrnEcDXZbjrqYIgoVR5Zkj7iK0uR_fJggsNgiSKy4QRr7VV0MGdi8PsgJzU6grETD5Vd4l_weQRrS2_aWUupaj8X6P41HsnYBJQLrkUTkOU9RJUzkSCTH1BdvkqLMreYMyBLkr6OHRnYJ2U4WNITMSILpPrLDSFxD2LQlkExMxvQJdZE5Fr6zQUBBBM3AsCxOyt08V_1dol45YqSWVvkEE4_Cu3TAhCJWBwKo-GcoswZWYm0ycI9fS3QP0aSfK70fv3r_x36O3FZsVH8HbKcH0Nsc8hTdZCjS5r3OyhJuTqEOlox1JLPN-PKa8FtLpxa35aSDfm1lsn-84lgKjt5voDarWUsDQKC4zCzVDHGhwwlGyZyRe6cnVt1Ybz4fVUbBy4hzeTCUt2T-yZyRe6cnRU3-Q8BRTWc.&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.66b22e8dWKj7Gf"/>
-    <hyperlink ref="F24" r:id="rId17" display="https://item.taobao.com/item.htm?spm=tbpc.boughtlist.suborder_itemtitle.1.12492e8dAwCxKM&amp;id=630808292950&amp;pisk=gprTs5D1d6fGaYZtKR7HilnkVyWnBw2aL5yWmjcMlWFLM8pgSqcmlmFzwqtc7c0xDWG3jf2ifxgbi7ai1PcDDoFU6hxmfSjxG8zF3fDgjKHbR5K0SRcgJKnaxPxms1oYh7mAZ_jlqRyZYm1lZXrvVsnSUxM6if9BRmDY-RTMFRyZ0j9HGa4QQKFhug9shj6KAxH6lmMjhJ6KHYhjcfgXOeMSOmiX5FTIdxktGjgbGeGI3AGXGqTsRMMohmT_GVsCpxlICmijMt5xOdGDDzfxdedv5g-pvkHtWjKmPneQq30xNtc90nltsVLgCXKXckUhggbj1aJngccanAFV4hoskPNtdmIvAcFaCogLm6vIyDGxPl0pFHg36x3Sc2pXcJnU8SMnVgOKLywgllP9HnMaju0xa2BX0qmQq4a76KWzdcMbg4rcahl_h8rzr0IvAc3f4Squ2GAyZbHD59BpuEusLy6btD2BkU3IpbXODE8q89kKZ9BpuEusLvhlBtL2u2WF."/>
+    <hyperlink ref="F24" r:id="rId17" display="https://item.taobao.com/item.htm?spm=tbpc.boughtlist.suborder_itemtitle.1.12492e8dAwCxKM&amp;id=630808292950&amp;pisk=gprTs5D1d6fGaYZtKR7HilnkVyWnBw2aL5yWmjcMlWFLM8pgSqcmlmFzwqtc7c0xDWG3jf2ifxgbi7ai1PcDDoFU6hxmfSjxG8zF3fDgjKHbR5K0SRcgJKnaxPxms1oYh7mAZ_jlqRyZYm1lZXrvVsnSUxM6if9BRmDY-RTMFRyZ0j9HGa4QQKFhug9shj6KAxH6lmMjhJ6KHYhjcfgXOeMSOmiX5FTIdxktGjgbGeGI3AGXGqTsRMMohmT_GVsCpxlICmijMt5xOdGDDzfxdedv5g-pvkHtWjKmPneQq30xNtc90nltsVLgCXKXckUhggbj1aJngccanAFV4hoskPNtdmIvAcFaCogLm6vIyDGxPl0pFHg36x3Sc2pXcJnU8SMnVgOKLywgllP9HnMaju0xa2BX0qmQq4a76KWzdcMbg4rcahl_h8rzr0IvAc3f4Squ2GAyZbHD59BpuEusLy6btD2BkU3IpbXODE8q89kKZ9BpuEusLvhlBtL2u2WF." tooltip="https://item.taobao.com/item.htm?spm=tbpc.boughtlist.suborder_itemtitle.1.12492e8dAwCxKM&amp;id=630808292950&amp;pisk=gprTs5D1d6fGaYZtKR7HilnkVyWnBw2aL5yWmjcMlWFLM8pgSqcmlmFzwqtc7c0xDWG3jf2ifxgbi7ai1PcDDoFU6hxmfSjxG8zF3fDgjKHbR5K0SRcgJKnaxPxms1oYh7mAZ_jlqRyZYm1lZ"/>
+    <hyperlink ref="F25" r:id="rId17" display="https://item.taobao.com/item.htm?spm=tbpc.boughtlist.suborder_itemtitle.1.12492e8dAwCxKM&amp;id=630808292950&amp;pisk=gprTs5D1d6fGaYZtKR7HilnkVyWnBw2aL5yWmjcMlWFLM8pgSqcmlmFzwqtc7c0xDWG3jf2ifxgbi7ai1PcDDoFU6hxmfSjxG8zF3fDgjKHbR5K0SRcgJKnaxPxms1oYh7mAZ_jlqRyZYm1lZXrvVsnSUxM6if9BRmDY-RTMFRyZ0j9HGa4QQKFhug9shj6KAxH6lmMjhJ6KHYhjcfgXOeMSOmiX5FTIdxktGjgbGeGI3AGXGqTsRMMohmT_GVsCpxlICmijMt5xOdGDDzfxdedv5g-pvkHtWjKmPneQq30xNtc90nltsVLgCXKXckUhggbj1aJngccanAFV4hoskPNtdmIvAcFaCogLm6vIyDGxPl0pFHg36x3Sc2pXcJnU8SMnVgOKLywgllP9HnMaju0xa2BX0qmQq4a76KWzdcMbg4rcahl_h8rzr0IvAc3f4Squ2GAyZbHD59BpuEusLy6btD2BkU3IpbXODE8q89kKZ9BpuEusLvhlBtL2u2WF."/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
   <si>
     <t>序号</t>
   </si>
@@ -124,97 +124,100 @@
     <t>圆锥滚子轴承</t>
   </si>
   <si>
+    <t>20*37*12</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=616787169746&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.66912e8dUnU3HP&amp;pisk=g2Dgsk6FFfP6eYYL9vw6aaGV4uAL-Rwj3qBYk-U2TyzBc1C9fSrqmqDx6mzYnq0moPF25RHm-0ivfxK_QKqqy22xXPUx-n0tctL6GRBVoViy5cUvfx44-Vu0GhaYur0x0fKpeLnsf-w4nUpJerVXm80GgOrw09r_4HEwAfJqa-w2yEfd359uhVyAlb1NTkzQmo740qyUToq43ora3H4Umu1V7qu2xyr8qs54_r5eLyZ8bsWN3wyUqlbN3ou48HqY8ry4_qoEiRW4rxkILeILHtKsngN3j54rbPoTBv5Qv1Ma-R2sIlmHxc43vkH3j54zOQgvBAuK0AH_OQC7hDhoojueKO0mbbu4Wv8PnrhSCDk3ZiWxxJ4mVPyl0do3IPVrpV9PH4on0bFnp3J7IRzZMRiAqFnnIVnsKmIVTR2tt7DgUL_akXnonoDXlp0obbuqigyNT_r05tZeDv5fG5rQxzCEBz-Xhtj4EHxhNCNaAlLJxHffG5rQxzKHx____kZ9y</t>
+  </si>
+  <si>
+    <t>十字扁平头螺丝</t>
+  </si>
+  <si>
+    <t>M3*8</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=641493636015&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.66912e8dUnU3HP&amp;pisk=g0L8smfSGxDuTJ8RiQo0K7BtZlhDRmAygLR_-9XuAKpvpCFkqMXhAwpwBMan4ajdJK6DrTAlP6sBKdtlF3X3Jep2ez4hPp0ddC-qTTfkrWCBcLUHqQXkDWQyo34hEY7pOdbKIA0iSQRPuwMiIYohfz71s9ZQK_1flwfpmQZu1QRP89N0dcxXaWp22_F5O9GAl6C7Aws5OZNf36q5dp65c-1O_w_BdTabl1CGNy1QVjEf_6UQNT1Cho1F9u_CVpOjM6WfNw_IMbHdh763JhDl0vlnfrmsfECR29UHbyBMIPXCCiB0RAwdNgEkNtUQREKmLVmCFcPcLaXyt_pE7z75v39RGw3LlapyNesv-xVfXZ6dfUjY1rsDe6I1RiFQRIQ20p1c5VwAgnOkAUJ89y1yrFjdQihQ8MbXSGt6eWlwGa1BLG8nQzWWOC8wjN3LlaIC4KYMW42aIOC3VjhYYkS5gnGBnZAbvlIfMOc-JkrF0j5AIjhYYkS5gsBiwXEUYilV.</t>
+  </si>
+  <si>
+    <t>内六角螺丝圆柱头螺栓</t>
+  </si>
+  <si>
+    <t>M5*14</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=40189700729&amp;pisk=gJG_s6cDkGj6j-PAlRYFOvo2Z7Vb5eRyMZaxrqCNk5FThs3ZVr543d4fGkgJSlJDImMIDD2aXoy4GrizxV52SV8XGq38XSkabrnEcDXZbjrqYIgoVR5Zkj7iK0uR_fJggsNgiSKy4QRr7VV0MGdi8PsgJzU6grETD5Vd4l_weQRrS2_aWUupaj8X6P41HsnYBJQLrkUTkOU9RJUzkSCTH1BdvkqLMreYMyBLkr6OHRnYJ2U4WNITMSILpPrLDSFxD2LQlkExMxvQJdZE5Fr6zQUBBBM3AsCxOyt08V_1dol45YqSWVvkEE4_Cu3TAhCJWBwKo-GcoswZWYm0ycI9fS3QP0aSfK70fv3r_x36O3FZsVH8HbKcH0Nsc8hTdZCjS5r3OyhJuTqEOlox1JLPN-PKa8FtLpxa35aSDfm1lsn-84lgKjt5voDarWUsDQKC4zCzVDHGhwwlGyZyRe6cnVt1Ybz4fVUbBy4hzeTCUt2T-yZyRe6cnRU3-Q8BRTWc.&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.66b22e8dWKj7Gf</t>
+  </si>
+  <si>
+    <t>M4*14</t>
+  </si>
+  <si>
+    <t>六角螺帽</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?detail_redpacket_pop=true&amp;id=549640610734&amp;ltk2=1751972028937ji8m1jp7ssaci3uz6zdys&amp;ns=1&amp;priceTId=undefined&amp;query=m5%E8%9E%BA%E6%AF%8D&amp;skuId=5618615008389&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%2203691c8cc532103ef1eb26baed91686a%22%7D&amp;xxc=ad_ztc</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=549640610734&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.1e082e8dJs5w32&amp;pisk=gHo3_1w_52zQ_gATWcZBu6qVuZTtRkZS4bI8wuFy75P6FwQpdzyrEbm-JYP8qbcoZWUyOknosxMJd0pQY32rMfq-pWF-sLcKFgdBPkIPZXM2OvFJd0VzsXluPpN8a7c-U2p9DnHIduZzZIKvDc8xORlh8WPyUPy7UdeeC2-ruuZyMQbO4yt0VXrRB9_P7RP_E85zab-a78NaUwrra5za3-CU4blz_AyQn97P8g-aQ5wc49yzaA7ae85FY7lrQd28EuPrayJiQjf2TWorvcROUHSOhzRsYJ43gvPnpAmwlP_Ip5mxVcynPJMFPgSrjJ4nbr7E3Y4KzxajvvKlfkHm7lynanRUbxuiHymHiMF7rccnrXpRPR0oUmZQmT-EIkV3uD4CFicqIYuYScp2ckqUT4EIetAKIDcKdcDRUNr3vV4mxo-fT73tn02oVQtiivuqa4jrjN7VxkS7QLnNPaaUCRVA7DF2FEN299JMIZV78RwUMdvGPaaUCRVvIdbmFyy_LSC..</t>
+  </si>
+  <si>
+    <t>土八热熔螺母</t>
+  </si>
+  <si>
+    <t>M2*2*3</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=809364062256&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.1e082e8dJs5w32&amp;pisk=gXH3sUq_1XPI37LT6AwBgw2VgsOTpJwSU4B8y8Uy_Pz6V6CpA7rrq4D-90z8E40oryFyRJHoSmiJAYKQLLqrkV2-vyU-S30KVTLBNJBPr2i2RDUJAY4zS2uuNHa8zz0-4XK9HKnIA8wzrEpvHARxRluhU9Pe45r8qhEefXJrg8wykUfOUW90F2yRXn5F_lz_qu7zz4Ja_uaa46yrzPPa0oQUU4uz7crQmM5PTTJabPZUzMzU4loamuEPTuurbhq77zyzT4oZi58U8YkKQFIyLOIbEgHYxW4qYymKjA-gw6i_SbhSBkc7GD55UTkgxWDag6oqqWhrcSMKvLX_pmcaQk0y3eyZ0fmYtvYcpzNoI2coJ3C7jbmrhJwc4pogKyVqKWs5nqoi4jFiBnJbKJzEwJiRmeniK2nII0IP_J2KsSD33K_UyfnmEuDWPd0mYjurZg-G_sW3LTZw2A55NWr_jrCZpr-WGr8dYhxGizNUfkzvjhf5NWr_jrKMjsm7TlZUk</t>
+  </si>
+  <si>
+    <t>3M同步轮</t>
+  </si>
+  <si>
+    <t>3M25齿 孔8 宽11</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=tbpc.boughtlist.suborder_itemtitle.1.1e082e8dJs5w32&amp;id=739009813395&amp;pisk=gS4g6qGIAlo6EvXKvyg14d0y43sLXVgbu-LxHqHVYvkCGhKO1ml4i-4YXSkxo-20nAnVCVU0K7NA1rCs7Zc4eJ0Y6AHYKs2TGEB1cVL2nRNPC5HA1rDqKRymc1Mx3x2YglCdyaF_1qgqnTQRyyS8CXrDuFlVgBltofrLbhEz1qgVnBLV2aV_CJRJHhlqT6cxMK843fJELvGvbxyqQDJEZbgqu-kaTBl-snRwuhlFtblX_xu2bBuEgjOwb-uVtWkIgqla3ql0aOkauPUFpI7wJQZholGijYPZI5eL83gkfJM35yaosoZu_nT2uycijyoyb7PmXoPSVPFOoegTZkuEs-7PQ2Pzx7ngSTYthm43Io2OMnG3mSzS54AV7W0iI0zifITuUWV42D4daagi7Arx5SdlBW4gB5a3MI-ESVEnqP0PPdkYv74mir6f-8Va4-rc4Exe4F0wlX5Y8ntjbXGneHztUssSUOdNt6xohclI_YChtntjbXGne6fHqSiZOfkR.</t>
+  </si>
+  <si>
+    <t>3M25齿 孔5 宽11</t>
+  </si>
+  <si>
+    <t>3M25齿 孔6 宽11</t>
+  </si>
+  <si>
+    <t>3M同步带</t>
+  </si>
+  <si>
+    <t>3M-长171-宽11</t>
+  </si>
+  <si>
+    <t>3M-长177-宽11</t>
+  </si>
+  <si>
+    <t>联轴器</t>
+  </si>
+  <si>
+    <t>外径28mm抱紧式联轴器 孔径8mm</t>
+  </si>
+  <si>
+    <t>https://buyertrade.taobao.com/trade/itemlist/list_bought_items.htm?spm=a21bo.jianhua/a.bought.1.5af92a89D0sxQv</t>
+  </si>
+  <si>
+    <t>限位开关</t>
+  </si>
+  <si>
+    <t>KW11-3Z-A</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=tbpc.boughtlist.suborder_itemtitle.1.12492e8dAwCxKM&amp;id=630808292950&amp;pisk=gprTs5D1d6fGaYZtKR7HilnkVyWnBw2aL5yWmjcMlWFLM8pgSqcmlmFzwqtc7c0xDWG3jf2ifxgbi7ai1PcDDoFU6hxmfSjxG8zF3fDgjKHbR5K0SRcgJKnaxPxms1oYh7mAZ_jlqRyZYm1lZXrvVsnSUxM6if9BRmDY-RTMFRyZ0j9HGa4QQKFhug9shj6KAxH6lmMjhJ6KHYhjcfgXOeMSOmiX5FTIdxktGjgbGeGI3AGXGqTsRMMohmT_GVsCpxlICmijMt5xOdGDDzfxdedv5g-pvkHtWjKmPneQq30xNtc90nltsVLgCXKXckUhggbj1aJngccanAFV4hoskPNtdmIvAcFaCogLm6vIyDGxPl0pFHg36x3Sc2pXcJnU8SMnVgOKLywgllP9HnMaju0xa2BX0qmQq4a76KWzdcMbg4rcahl_h8rzr0IvAc3f4Squ2GAyZbHD59BpuEusLy6btD2BkU3IpbXODE8q89kKZ9BpuEusLvhlBtL2u2WF.</t>
+  </si>
+  <si>
     <t>KW11-3Z-B</t>
-  </si>
-  <si>
-    <t>https://detail.tmall.com/item.htm?id=616787169746&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.66912e8dUnU3HP&amp;pisk=g2Dgsk6FFfP6eYYL9vw6aaGV4uAL-Rwj3qBYk-U2TyzBc1C9fSrqmqDx6mzYnq0moPF25RHm-0ivfxK_QKqqy22xXPUx-n0tctL6GRBVoViy5cUvfx44-Vu0GhaYur0x0fKpeLnsf-w4nUpJerVXm80GgOrw09r_4HEwAfJqa-w2yEfd359uhVyAlb1NTkzQmo740qyUToq43ora3H4Umu1V7qu2xyr8qs54_r5eLyZ8bsWN3wyUqlbN3ou48HqY8ry4_qoEiRW4rxkILeILHtKsngN3j54rbPoTBv5Qv1Ma-R2sIlmHxc43vkH3j54zOQgvBAuK0AH_OQC7hDhoojueKO0mbbu4Wv8PnrhSCDk3ZiWxxJ4mVPyl0do3IPVrpV9PH4on0bFnp3J7IRzZMRiAqFnnIVnsKmIVTR2tt7DgUL_akXnonoDXlp0obbuqigyNT_r05tZeDv5fG5rQxzCEBz-Xhtj4EHxhNCNaAlLJxHffG5rQxzKHx____kZ9y</t>
-  </si>
-  <si>
-    <t>十字扁平头螺丝</t>
-  </si>
-  <si>
-    <t>M3*8</t>
-  </si>
-  <si>
-    <t>https://detail.tmall.com/item.htm?id=641493636015&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.66912e8dUnU3HP&amp;pisk=g0L8smfSGxDuTJ8RiQo0K7BtZlhDRmAygLR_-9XuAKpvpCFkqMXhAwpwBMan4ajdJK6DrTAlP6sBKdtlF3X3Jep2ez4hPp0ddC-qTTfkrWCBcLUHqQXkDWQyo34hEY7pOdbKIA0iSQRPuwMiIYohfz71s9ZQK_1flwfpmQZu1QRP89N0dcxXaWp22_F5O9GAl6C7Aws5OZNf36q5dp65c-1O_w_BdTabl1CGNy1QVjEf_6UQNT1Cho1F9u_CVpOjM6WfNw_IMbHdh763JhDl0vlnfrmsfECR29UHbyBMIPXCCiB0RAwdNgEkNtUQREKmLVmCFcPcLaXyt_pE7z75v39RGw3LlapyNesv-xVfXZ6dfUjY1rsDe6I1RiFQRIQ20p1c5VwAgnOkAUJ89y1yrFjdQihQ8MbXSGt6eWlwGa1BLG8nQzWWOC8wjN3LlaIC4KYMW42aIOC3VjhYYkS5gnGBnZAbvlIfMOc-JkrF0j5AIjhYYkS5gsBiwXEUYilV.</t>
-  </si>
-  <si>
-    <t>内六角螺丝圆柱头螺栓</t>
-  </si>
-  <si>
-    <t>M5*14</t>
-  </si>
-  <si>
-    <t>https://detail.tmall.com/item.htm?id=40189700729&amp;pisk=gJG_s6cDkGj6j-PAlRYFOvo2Z7Vb5eRyMZaxrqCNk5FThs3ZVr543d4fGkgJSlJDImMIDD2aXoy4GrizxV52SV8XGq38XSkabrnEcDXZbjrqYIgoVR5Zkj7iK0uR_fJggsNgiSKy4QRr7VV0MGdi8PsgJzU6grETD5Vd4l_weQRrS2_aWUupaj8X6P41HsnYBJQLrkUTkOU9RJUzkSCTH1BdvkqLMreYMyBLkr6OHRnYJ2U4WNITMSILpPrLDSFxD2LQlkExMxvQJdZE5Fr6zQUBBBM3AsCxOyt08V_1dol45YqSWVvkEE4_Cu3TAhCJWBwKo-GcoswZWYm0ycI9fS3QP0aSfK70fv3r_x36O3FZsVH8HbKcH0Nsc8hTdZCjS5r3OyhJuTqEOlox1JLPN-PKa8FtLpxa35aSDfm1lsn-84lgKjt5voDarWUsDQKC4zCzVDHGhwwlGyZyRe6cnVt1Ybz4fVUbBy4hzeTCUt2T-yZyRe6cnRU3-Q8BRTWc.&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.66b22e8dWKj7Gf</t>
-  </si>
-  <si>
-    <t>M4*14</t>
-  </si>
-  <si>
-    <t>六角螺帽</t>
-  </si>
-  <si>
-    <t>M5</t>
-  </si>
-  <si>
-    <t>https://detail.tmall.com/item.htm?detail_redpacket_pop=true&amp;id=549640610734&amp;ltk2=1751972028937ji8m1jp7ssaci3uz6zdys&amp;ns=1&amp;priceTId=undefined&amp;query=m5%E8%9E%BA%E6%AF%8D&amp;skuId=5618615008389&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%2203691c8cc532103ef1eb26baed91686a%22%7D&amp;xxc=ad_ztc</t>
-  </si>
-  <si>
-    <t>M3</t>
-  </si>
-  <si>
-    <t>https://detail.tmall.com/item.htm?id=549640610734&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.1e082e8dJs5w32&amp;pisk=gHo3_1w_52zQ_gATWcZBu6qVuZTtRkZS4bI8wuFy75P6FwQpdzyrEbm-JYP8qbcoZWUyOknosxMJd0pQY32rMfq-pWF-sLcKFgdBPkIPZXM2OvFJd0VzsXluPpN8a7c-U2p9DnHIduZzZIKvDc8xORlh8WPyUPy7UdeeC2-ruuZyMQbO4yt0VXrRB9_P7RP_E85zab-a78NaUwrra5za3-CU4blz_AyQn97P8g-aQ5wc49yzaA7ae85FY7lrQd28EuPrayJiQjf2TWorvcROUHSOhzRsYJ43gvPnpAmwlP_Ip5mxVcynPJMFPgSrjJ4nbr7E3Y4KzxajvvKlfkHm7lynanRUbxuiHymHiMF7rccnrXpRPR0oUmZQmT-EIkV3uD4CFicqIYuYScp2ckqUT4EIetAKIDcKdcDRUNr3vV4mxo-fT73tn02oVQtiivuqa4jrjN7VxkS7QLnNPaaUCRVA7DF2FEN299JMIZV78RwUMdvGPaaUCRVvIdbmFyy_LSC..</t>
-  </si>
-  <si>
-    <t>土八热熔螺母</t>
-  </si>
-  <si>
-    <t>M2*2*3</t>
-  </si>
-  <si>
-    <t>https://detail.tmall.com/item.htm?id=809364062256&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.1e082e8dJs5w32&amp;pisk=gXH3sUq_1XPI37LT6AwBgw2VgsOTpJwSU4B8y8Uy_Pz6V6CpA7rrq4D-90z8E40oryFyRJHoSmiJAYKQLLqrkV2-vyU-S30KVTLBNJBPr2i2RDUJAY4zS2uuNHa8zz0-4XK9HKnIA8wzrEpvHARxRluhU9Pe45r8qhEefXJrg8wykUfOUW90F2yRXn5F_lz_qu7zz4Ja_uaa46yrzPPa0oQUU4uz7crQmM5PTTJabPZUzMzU4loamuEPTuurbhq77zyzT4oZi58U8YkKQFIyLOIbEgHYxW4qYymKjA-gw6i_SbhSBkc7GD55UTkgxWDag6oqqWhrcSMKvLX_pmcaQk0y3eyZ0fmYtvYcpzNoI2coJ3C7jbmrhJwc4pogKyVqKWs5nqoi4jFiBnJbKJzEwJiRmeniK2nII0IP_J2KsSD33K_UyfnmEuDWPd0mYjurZg-G_sW3LTZw2A55NWr_jrCZpr-WGr8dYhxGizNUfkzvjhf5NWr_jrKMjsm7TlZUk</t>
-  </si>
-  <si>
-    <t>3M同步轮</t>
-  </si>
-  <si>
-    <t>3M25齿 孔8 宽11</t>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?spm=tbpc.boughtlist.suborder_itemtitle.1.1e082e8dJs5w32&amp;id=739009813395&amp;pisk=gS4g6qGIAlo6EvXKvyg14d0y43sLXVgbu-LxHqHVYvkCGhKO1ml4i-4YXSkxo-20nAnVCVU0K7NA1rCs7Zc4eJ0Y6AHYKs2TGEB1cVL2nRNPC5HA1rDqKRymc1Mx3x2YglCdyaF_1qgqnTQRyyS8CXrDuFlVgBltofrLbhEz1qgVnBLV2aV_CJRJHhlqT6cxMK843fJELvGvbxyqQDJEZbgqu-kaTBl-snRwuhlFtblX_xu2bBuEgjOwb-uVtWkIgqla3ql0aOkauPUFpI7wJQZholGijYPZI5eL83gkfJM35yaosoZu_nT2uycijyoyb7PmXoPSVPFOoegTZkuEs-7PQ2Pzx7ngSTYthm43Io2OMnG3mSzS54AV7W0iI0zifITuUWV42D4daagi7Arx5SdlBW4gB5a3MI-ESVEnqP0PPdkYv74mir6f-8Va4-rc4Exe4F0wlX5Y8ntjbXGneHztUssSUOdNt6xohclI_YChtntjbXGne6fHqSiZOfkR.</t>
-  </si>
-  <si>
-    <t>3M25齿 孔5 宽11</t>
-  </si>
-  <si>
-    <t>3M25齿 孔6 宽11</t>
-  </si>
-  <si>
-    <t>3M同步带</t>
-  </si>
-  <si>
-    <t>3M-长171-宽11</t>
-  </si>
-  <si>
-    <t>3M-长177-宽11</t>
-  </si>
-  <si>
-    <t>联轴器</t>
-  </si>
-  <si>
-    <t>外径28mm抱紧式联轴器 孔径8mm</t>
-  </si>
-  <si>
-    <t>https://buyertrade.taobao.com/trade/itemlist/list_bought_items.htm?spm=a21bo.jianhua/a.bought.1.5af92a89D0sxQv</t>
-  </si>
-  <si>
-    <t>限位开关</t>
-  </si>
-  <si>
-    <t>KW11-3Z-A</t>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?spm=tbpc.boughtlist.suborder_itemtitle.1.12492e8dAwCxKM&amp;id=630808292950&amp;pisk=gprTs5D1d6fGaYZtKR7HilnkVyWnBw2aL5yWmjcMlWFLM8pgSqcmlmFzwqtc7c0xDWG3jf2ifxgbi7ai1PcDDoFU6hxmfSjxG8zF3fDgjKHbR5K0SRcgJKnaxPxms1oYh7mAZ_jlqRyZYm1lZXrvVsnSUxM6if9BRmDY-RTMFRyZ0j9HGa4QQKFhug9shj6KAxH6lmMjhJ6KHYhjcfgXOeMSOmiX5FTIdxktGjgbGeGI3AGXGqTsRMMohmT_GVsCpxlICmijMt5xOdGDDzfxdedv5g-pvkHtWjKmPneQq30xNtc90nltsVLgCXKXckUhggbj1aJngccanAFV4hoskPNtdmIvAcFaCogLm6vIyDGxPl0pFHg36x3Sc2pXcJnU8SMnVgOKLywgllP9HnMaju0xa2BX0qmQq4a76KWzdcMbg4rcahl_h8rzr0IvAc3f4Squ2GAyZbHD59BpuEusLy6btD2BkU3IpbXODE8q89kKZ9BpuEusLvhlBtL2u2WF.</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1212,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1661,7 +1664,7 @@
         <v>59</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="D25" s="5">
         <v>2</v>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
   <si>
     <t>序号</t>
   </si>
@@ -91,7 +91,7 @@
     <t>35步进电机</t>
   </si>
   <si>
-    <t>35-28 身长28</t>
+    <t>35-28</t>
   </si>
   <si>
     <t>https://item.taobao.com/item.htm?spm=tbpc.boughtlist.suborder_itemtitle.1.66912e8dUnU3HP&amp;id=723690490192&amp;pisk=gDY__fq9xR2sXf7YGGcURerI20_j5XurkS1vZIUaMNQOcrdwFszV0cfbl9O-sOomjKtBHpjNBtSVls9PKCzqsCljlIdRBZ-NQspehpqwQEW2LqOkFGzwMEPMxLR87FoGur_GoZHrU4ursCbckFlV2XygvsCSulEOkNbLUONZ24uysBNN6bRKzElbLUfaDrpAXMFdN9COHPIxOMCPMZUODPELp9XdkPCO6kEdg_EY6KUOv9C51tUYXZQKJs6d6opAMXOdKs_AHjh7Nsi1ICGNEZNoK5NWk9aYke1KnCA_XlXJI1gVLQWIeoYQrG6J69axE7mgGt6HyvoBtpx9Q6vjPv_pwH_O1K3849KB9FjytcHBNN6G2eISmrv55KsJWMNYzNABxw1pyjrlLe6wHFsKazsVJUSRWHonQi71NKLMCSaveBRySMYjFJBDb_bd1K3-dgJQzTi-koNCqr1CUXGQmoAsCJ8PUlBUwGCh1MlIORKcX6fCUXGQmojOt16EOXw9m</t>
@@ -100,7 +100,7 @@
     <t>35行星减速步进电机</t>
   </si>
   <si>
-    <t>35-26 身长28 减速比51</t>
+    <t>35-26 减速比51</t>
   </si>
   <si>
     <t>https://item.taobao.com/item.htm?spm=tbpc.boughtlist.suborder_itemtitle.1.66912e8dUnU3HP&amp;id=581976167345&amp;pisk=gHfasYTSa5FaVyt9I6OqYMaqExO9dIr7mstXoZbD5hxgHFNmgZ7klPEYW98ccMUYWC_D0iSBvjTbBohVYG_lCdsfCnYDxMbs1nN93i752iGb6OTmgM_vni1Vkj8coiU9cPeCWNdviuZ507_OWiVXrO5ZsDxhJUimIJ9iQW7_RuZ7NSyi-IraVisj60VHzUADSKcmKy8XocYcmKch-HLvocYmsyzevEHiIEYDteYy7IDiidVnxU8qncxMmX4eyHcMiIjDty8xMP7GoX8WIrep6Ni3RcKWqNxEibuRCdVh2xisf2T6L3vhejYCTFJwqNf15Aqy-61eFpgbqBbRdGYeaSlH_LWGbebL0b-GFaQWmd0iswdwYpxO8cDMzC-wE1vTNjO9n95e11qxew_ejLRCdJE6hCSNe3pgpkIV8hsc_pmaAn65R1vFqkGFDKWGbeAl4nmv-LYfMOom3dYp83aU8r_Z69ESIZXxHxpHwe-75FMxHdYp83aU8xHvKULeVPT1.</t>
@@ -205,7 +205,7 @@
     <t>外径28mm抱紧式联轴器 孔径8mm</t>
   </si>
   <si>
-    <t>https://buyertrade.taobao.com/trade/itemlist/list_bought_items.htm?spm=a21bo.jianhua/a.bought.1.5af92a89D0sxQv</t>
+    <t>https://detail.tmall.com/item.htm?id=667472622255&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.33e62e8dvP4q1L&amp;pisk=gzE7TiY8oQA5fD4tPDW2fTmJawiIFtSNvpMLIJKyp0n-RHez1v-E8aDBAjwOEb7hrWab9S0rwXuEAvNZi8-FE8WCAJetwDzravF4OSYzaklUgMwg14-zpkJuo5y94u7oYHioxDCN_GSNE8mnvsUq8PAlDYDCY33-e0mv_b9PWGSaE-9reOyAbkWHIHk2JHFKyqpxCjLpJ4FKknHnM3Hp2vdAhvcxvv3-pnHxdARpw3FpkEHtBQHKp23xkAksvXFKvtwxiviK9Wndh-hHdIMFPve5C1a_z_xZk8hXvHERxVGsBe-eYyM-Pke-G-y4cYgS6qbgTgr8gJEzqqbwSD245WaLMit7O8UT9brA6HGUSu2YcV9pY-ijORc-fpI8h0GSWoPlXHPThJUZloWOj0i-wyouLd1zhuNzEowepEnS4rg_VcIMwXz4CkMQx6jb18UT9ysPVhl1WMLBhVxIhfWfheY3F_O4bf8-gd3-nYINhtOX-4HmhfWfheYnyxD87t6XGef..</t>
   </si>
   <si>
     <t>限位开关</t>
@@ -218,6 +218,12 @@
   </si>
   <si>
     <t>KW11-3Z-B</t>
+  </si>
+  <si>
+    <t>M2*8</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=641493636015&amp;pisk=g0L8smfSGxDuTJ8RiQo0K7BtZlhDRmAygLR_-9XuAKpvpCFkqMXhAwpwBMan4ajdJK6DrTAlP6sBKdtlF3X3Jep2ez4hPp0ddC-qTTfkrWCBcLUHqQXkDWQyo34hEY7pOdbKIA0iSQRPuwMiIYohfz71s9ZQK_1flwfpmQZu1QRP89N0dcxXaWp22_F5O9GAl6C7Aws5OZNf36q5dp65c-1O_w_BdTabl1CGNy1QVjEf_6UQNT1Cho1F9u_CVpOjM6WfNw_IMbHdh763JhDl0vlnfrmsfECR29UHbyBMIPXCCiB0RAwdNgEkNtUQREKmLVmCFcPcLaXyt_pE7z75v39RGw3LlapyNesv-xVfXZ6dfUjY1rsDe6I1RiFQRIQ20p1c5VwAgnOkAUJ89y1yrFjdQihQ8MbXSGt6eWlwGa1BLG8nQzWWOC8wjN3LlaIC4KYMW42aIOC3VjhYYkS5gnGBnZAbvlIfMOc-JkrF0j5AIjhYYkS5gsBiwXEUYilV.&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.66912e8dUnU3HP</t>
   </si>
 </sst>
 </file>
@@ -1209,20 +1215,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="26.3666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.3636363636364" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6363636363636" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="47.0916666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="66.0916666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="47.0909090909091" style="1" customWidth="1"/>
+    <col min="6" max="6" width="66.0909090909091" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1350,7 +1356,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1440,7 +1446,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1634,7 +1640,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="7" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1672,6 +1678,24 @@
       <c r="E25" s="5"/>
       <c r="F25" s="7" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1" spans="1:6">
+      <c r="A26" s="10">
+        <v>27</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="10">
+        <v>10</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1679,16 +1703,16 @@
     <hyperlink ref="F2" r:id="rId1" display="https://item.taobao.com/item.htm?spm=tbpc.boughtlist.suborder_itemtitle.1.722b2e8dO34cYk&amp;id=526104907428&amp;pisk=gLmasf254hKwx3VTSDZVTX6ZUrZTSoRWimNbnxD0C5VMkRtc0xkuhddvB2ymGXpvBlM0gjlQ9iwXWIIqTfMo5PGj5S20tXD1fStTujkSwjsXXVwc0XMYojiqHiymnjpTGdLIBAEYmQOSg3MtB5hx0ymaiHjnp-ecSeaG7Hk6dQOWVn8GKoRwNjGbk7-3U8q0IrjcxpyzEZq0oRDHL-2fsZjiipJUh8yciS40KM28Iobgo-qnK8eai1V0o9vUHWV0moc0xpyxGgDinMy7SKLLnD_hSgEUZAVFmgW8mPjZdZsGjX2g7mDgTp9IYRzaZyL-GhiiOxmsXyL5yoHIzjumtHSZgA0oi5iHZiPjycHnYzWccvrUgYFg4txiLlParDG9qiGoLx078D9k2lrgsqZthTRsLclsBDkfnwqaf2zrbuxRsSgIUmyqDIKEaA0oiqSz4se3r-ix7sb4SJeUNpJehAStJQ_inqQAkyq8L79_CZQY7jeUNp6CkZU13JPWdmf.." tooltip="https://item.taobao.com/item.htm?spm=tbpc.boughtlist.suborder_itemtitle.1.722b2e8dO34cYk&amp;id=526104907428&amp;pisk=gLmasf254hKwx3VTSDZVTX6ZUrZTSoRWimNbnxD0C5VMkRtc0xkuhddvB2ymGXpvBlM0gjlQ9iwXWIIqTfMo5PGj5S20tXD1fStTujkSwjsXXVwc0XMYojiqHiymnjpTGdLIBAEYmQOSg3MtB"/>
     <hyperlink ref="F3" r:id="rId1" display="https://item.taobao.com/item.htm?spm=tbpc.boughtlist.suborder_itemtitle.1.722b2e8dO34cYk&amp;id=526104907428&amp;pisk=gLmasf254hKwx3VTSDZVTX6ZUrZTSoRWimNbnxD0C5VMkRtc0xkuhddvB2ymGXpvBlM0gjlQ9iwXWIIqTfMo5PGj5S20tXD1fStTujkSwjsXXVwc0XMYojiqHiymnjpTGdLIBAEYmQOSg3MtB5hx0ymaiHjnp-ecSeaG7Hk6dQOWVn8GKoRwNjGbk7-3U8q0IrjcxpyzEZq0oRDHL-2fsZjiipJUh8yciS40KM28Iobgo-qnK8eai1V0o9vUHWV0moc0xpyxGgDinMy7SKLLnD_hSgEUZAVFmgW8mPjZdZsGjX2g7mDgTp9IYRzaZyL-GhiiOxmsXyL5yoHIzjumtHSZgA0oi5iHZiPjycHnYzWccvrUgYFg4txiLlParDG9qiGoLx078D9k2lrgsqZthTRsLclsBDkfnwqaf2zrbuxRsSgIUmyqDIKEaA0oiqSz4se3r-ix7sb4SJeUNpJehAStJQ_inqQAkyq8L79_CZQY7jeUNp6CkZU13JPWdmf.."/>
     <hyperlink ref="F4" r:id="rId2" display="https://item.taobao.com/item.htm?id=681246792404&amp;pisk=gLHTsSq6AeYGW5DTxcRhoGUJj_KnXBmZYVo5nr4GG23Kk0IisS40G-3ryS6D_RVYH2anIPmgCoNjo4Gg5f4cHx3EWOX0CqvYl0le0PqiIiEjOVBmsc4i9ieZKfX0SFyxc42vrUvkEcoaL-TkrFR0NOy7Xr_1oosIA-qxtc1GVcoa3rshlQcIbi3EgBj_crtLdoE1h-N_hJ_Q8of_lqa_OwZ84-wjlP6CduEuftZf1HCQboEfho66dWZzctwbhqiBvozQf-wjGP8YRGacHbYgTE-cbQWRevET6rB0ytEsLTVgPPUChUwUXazSfyBfhPv2b9iKjFBrxRkEyu0MdO3-fbgjN29dBWlsvxFr3IXif-UTZANOfFPLMPhICWIfhcoE9qcxWFCa5f0LakNCDLrnryiZCXKVRcguWRZQtLt-ASGnQ7kMROeSac2iG29dB4srmYDJIa7uyof6vHCVg5ZEOng3KD1AwWZLrhpAgsPeYkUkvHCVg5ZUvzx9Ds54TH5..&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.66912e8dUnU3HP"/>
-    <hyperlink ref="F5" r:id="rId3" display="https://item.taobao.com/item.htm?id=673302946671&amp;pisk=g3S7660Robc5PiKKdU2qciubWPtIR-ravv9dI9nrp3KJRDBP1poe8zvIAI6TEQz3r6_f9sYywB8eAp1wiToUETyQA9B9wH7yapCVOs0PaMRFgk6G1UoPpMklo1Wt4gzkYDtkxHFa_lraETxHvgyeW-loMpv7YDp-23xx_QMzWlrNEtMyeRWYbMyI0Mp-JDCpyEHvCIhppHCpkmpHM0pK2phYhIAx24pJpqKvIdkJvpnJMIpHLYnppphvDIvpvBCpv-tviphvdA9QPQX7UCxIISqUc6OjvDIXHWxGFynWQMpSXCXXG5HNccYW6Tdjv5DgrvOBiGF4ltfcy_JcOlNXDOQX2L1LXVRAltIk7t48GOtWZFIv5ymh131BWgLjpc-lhZxXHGeESISXa6IWkRo68nIwW3Q4o78eVd1dq_MIv1BVQgYcA5GvtaJMDL1LXSsrAcR_Wk3IhFmBhCybh20hF7GVbCuJgALJnLT4h-GR-UpDhCybh20HyKvWg-wjwwf..&amp;skuId=5032954871244&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.66912e8dUnU3HP"/>
+    <hyperlink ref="F5" r:id="rId3" display="https://item.taobao.com/item.htm?id=673302946671&amp;pisk=g3S7660Robc5PiKKdU2qciubWPtIR-ravv9dI9nrp3KJRDBP1poe8zvIAI6TEQz3r6_f9sYywB8eAp1wiToUETyQA9B9wH7yapCVOs0PaMRFgk6G1UoPpMklo1Wt4gzkYDtkxHFa_lraETxHvgyeW-loMpv7YDp-23xx_QMzWlrNEtMyeRWYbMyI0Mp-JDCpyEHvCIhppHCpkmpHM0pK2phYhIAx24pJpqKvIdkJvpnJMIpHLYnppphvDIvpvBCpv-tviphvdA9QPQX7UCxIISqUc6OjvDIXHWxGFynWQMpSXCXXG5HNccYW6Tdjv5DgrvOBiGF4ltfcy_JcOlNXDOQX2L1LXVRAltIk7t48GOtWZFIv5ymh131BWgLjpc-lhZxXHGeESISXa6IWkRo68nIwW3Q4o78eVd1dq_MIv1BVQgYcA5GvtaJMDL1LXSsrAcR_Wk3IhFmBhCybh20hF7GVbCuJgALJnLT4h-GR-UpDhCybh20HyKvWg-wjwwf..&amp;skuId=5032954871244&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.66912e8dUnU3HP" tooltip="https://item.taobao.com/item.htm?id=673302946671&amp;pisk=g3S7660Robc5PiKKdU2qciubWPtIR-ravv9dI9nrp3KJRDBP1poe8zvIAI6TEQz3r6_f9sYywB8eAp1wiToUETyQA9B9wH7yapCVOs0PaMRFgk6G1UoPpMklo1Wt4gzkYDtkxHFa_lraETxHvgyeW-loMpv7YDp-23xx_QMzWlrNEtMyeRWYbMyI0Mp-JDCpyEHvCIhpp"/>
     <hyperlink ref="F6" r:id="rId4" display="https://item.taobao.com/item.htm?id=21034340111&amp;pisk=gDPL_i0C5Gj3ZzNKSyWMqenA-KQMpO4U7kzXZ0mHFlET2rL3KYmoFbE4DYOlLXD-wligtD4nO4M7qownAJmkw7EavBAoOuf-VryNzD03tU37CkduKym3BUhUsJAoxMl8PocRmifciyzE_bscmMWohBljkeOBqYts1b08Iy9HlyzEa0TMVt2_8UEanT8SP0_t143BFbMINhMsb4vIVuiIChgxubG7VDO61q3mRQgWdNHsr4OBNDi75fgoybgIVuG_5cuSN2ZSNjhP2cTIqQecxASPrCT9xHVtJvnJZuA-LROmwmOiYBAnvWMpKyi9NQNTIg5cFD62S0lnYz0L4sREOYeQvVGRwCGLYyNSB7jM5xhs2xNnBEOsIk3-hbM9PQat_RrSSj1XXVy_-8NUvUdS8WVmemkOPQko1SDbhkLPuPGIPuk4ZiREAza4g-cAwCGKFgr0iSCH0nmxrp_OWLJrdVy1Plcg5LpxCVncJ_pyUA7ZWmbOWLJrdVutmwQJULkN7&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.66912e8dUnU3HP&amp;sku_properties=1627207%3A33214301305"/>
     <hyperlink ref="F7" r:id="rId5" display="https://item.taobao.com/item.htm?spm=tbpc.boughtlist.suborder_itemtitle.1.66912e8dUnU3HP&amp;id=723690490192&amp;pisk=gDY__fq9xR2sXf7YGGcURerI20_j5XurkS1vZIUaMNQOcrdwFszV0cfbl9O-sOomjKtBHpjNBtSVls9PKCzqsCljlIdRBZ-NQspehpqwQEW2LqOkFGzwMEPMxLR87FoGur_GoZHrU4ursCbckFlV2XygvsCSulEOkNbLUONZ24uysBNN6bRKzElbLUfaDrpAXMFdN9COHPIxOMCPMZUODPELp9XdkPCO6kEdg_EY6KUOv9C51tUYXZQKJs6d6opAMXOdKs_AHjh7Nsi1ICGNEZNoK5NWk9aYke1KnCA_XlXJI1gVLQWIeoYQrG6J69axE7mgGt6HyvoBtpx9Q6vjPv_pwH_O1K3849KB9FjytcHBNN6G2eISmrv55KsJWMNYzNABxw1pyjrlLe6wHFsKazsVJUSRWHonQi71NKLMCSaveBRySMYjFJBDb_bd1K3-dgJQzTi-koNCqr1CUXGQmoAsCJ8PUlBUwGCh1MlIORKcX6fCUXGQmojOt16EOXw9m"/>
     <hyperlink ref="F8" r:id="rId6" display="https://item.taobao.com/item.htm?spm=tbpc.boughtlist.suborder_itemtitle.1.66912e8dUnU3HP&amp;id=581976167345&amp;pisk=gHfasYTSa5FaVyt9I6OqYMaqExO9dIr7mstXoZbD5hxgHFNmgZ7klPEYW98ccMUYWC_D0iSBvjTbBohVYG_lCdsfCnYDxMbs1nN93i752iGb6OTmgM_vni1Vkj8coiU9cPeCWNdviuZ507_OWiVXrO5ZsDxhJUimIJ9iQW7_RuZ7NSyi-IraVisj60VHzUADSKcmKy8XocYcmKch-HLvocYmsyzevEHiIEYDteYy7IDiidVnxU8qncxMmX4eyHcMiIjDty8xMP7GoX8WIrep6Ni3RcKWqNxEibuRCdVh2xisf2T6L3vhejYCTFJwqNf15Aqy-61eFpgbqBbRdGYeaSlH_LWGbebL0b-GFaQWmd0iswdwYpxO8cDMzC-wE1vTNjO9n95e11qxew_ejLRCdJE6hCSNe3pgpkIV8hsc_pmaAn65R1vFqkGFDKWGbeAl4nmv-LYfMOom3dYp83aU8r_Z69ESIZXxHxpHwe-75FMxHdYp83aU8xHvKULeVPT1."/>
     <hyperlink ref="F9" r:id="rId7" display="https://item.taobao.com/item.htm?spm=tbpc.boughtlist.suborder_itemtitle.1.66912e8dUnU3HP&amp;id=736578173538&amp;pisk=gXtT_QXsdXcgEs-OKdu3iRC-IzHnX2vwLCJ7msfglBdpMLeMSZfclidywZZm7GbADB1Hj1vGft_XiQTG1Ff0Dnde6lqcfImAGL8E31XMj-BXRCEDSdfMJ-IwxFqcsfSvhQjxZbmoqdJNYiGoZfucPlS5CrabiZ6CRiXv-dagFdJN0sw3G4YBQ-dezz2fhsMdAtB_li_1cW_CTt41GI11RW6RUisXG1ZQATBlCo6b5vFChT4_1o__O66l3Ssf1IsCO6WfcOOfcj4iM6w1ioLoswlqnfFI0m-dBNCYmhrAxBqln_aF6oEA6vb1N0fLcotdBp03SuE-o_TPsafHODqODp6vwTdTOXIXph-RRhGUDwRAOwt18-ZWeCxOAhT8ho9dX6RcdCPt9_twd3SC-0MJdHRMQHp0hm6HZ69wfinSUGI11MBemXr1MeTXjNS41fIXptszi3x-j7Plwt4spvU4uN6eRxOhxpaYyw6dZAnYur7EL9CopvU4uN6Fp_DtHrzV8v5.."/>
     <hyperlink ref="F11" r:id="rId8" display="https://detail.tmall.com/item.htm?id=616787169746&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.66912e8dUnU3HP&amp;pisk=g2Dgsk6FFfP6eYYL9vw6aaGV4uAL-Rwj3qBYk-U2TyzBc1C9fSrqmqDx6mzYnq0moPF25RHm-0ivfxK_QKqqy22xXPUx-n0tctL6GRBVoViy5cUvfx44-Vu0GhaYur0x0fKpeLnsf-w4nUpJerVXm80GgOrw09r_4HEwAfJqa-w2yEfd359uhVyAlb1NTkzQmo740qyUToq43ora3H4Umu1V7qu2xyr8qs54_r5eLyZ8bsWN3wyUqlbN3ou48HqY8ry4_qoEiRW4rxkILeILHtKsngN3j54rbPoTBv5Qv1Ma-R2sIlmHxc43vkH3j54zOQgvBAuK0AH_OQC7hDhoojueKO0mbbu4Wv8PnrhSCDk3ZiWxxJ4mVPyl0do3IPVrpV9PH4on0bFnp3J7IRzZMRiAqFnnIVnsKmIVTR2tt7DgUL_akXnonoDXlp0obbuqigyNT_r05tZeDv5fG5rQxzCEBz-Xhtj4EHxhNCNaAlLJxHffG5rQxzKHx____kZ9y"/>
     <hyperlink ref="F10" r:id="rId9" display="https://item.taobao.com/item.htm?id=736578173538&amp;pisk=gXtT_QXsdXcgEs-OKdu3iRC-IzHnX2vwLCJ7msfglBdpMLeMSZfclidywZZm7GbADB1Hj1vGft_XiQTG1Ff0Dnde6lqcfImAGL8E31XMj-BXRCEDSdfMJ-IwxFqcsfSvhQjxZbmoqdJNYiGoZfucPlS5CrabiZ6CRiXv-dagFdJN0sw3G4YBQ-dezz2fhsMdAtB_li_1cW_CTt41GI11RW6RUisXG1ZQATBlCo6b5vFChT4_1o__O66l3Ssf1IsCO6WfcOOfcj4iM6w1ioLoswlqnfFI0m-dBNCYmhrAxBqln_aF6oEA6vb1N0fLcotdBp03SuE-o_TPsafHODqODp6vwTdTOXIXph-RRhGUDwRAOwt18-ZWeCxOAhT8ho9dX6RcdCPt9_twd3SC-0MJdHRMQHp0hm6HZ69wfinSUGI11MBemXr1MeTXjNS41fIXptszi3x-j7Plwt4spvU4uN6eRxOhxpaYyw6dZAnYur7EL9CopvU4uN6Fp_DtHrzV8v5..&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.66912e8dUnU3HP"/>
-    <hyperlink ref="F12" r:id="rId10" display="https://detail.tmall.com/item.htm?id=641493636015&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.66912e8dUnU3HP&amp;pisk=g0L8smfSGxDuTJ8RiQo0K7BtZlhDRmAygLR_-9XuAKpvpCFkqMXhAwpwBMan4ajdJK6DrTAlP6sBKdtlF3X3Jep2ez4hPp0ddC-qTTfkrWCBcLUHqQXkDWQyo34hEY7pOdbKIA0iSQRPuwMiIYohfz71s9ZQK_1flwfpmQZu1QRP89N0dcxXaWp22_F5O9GAl6C7Aws5OZNf36q5dp65c-1O_w_BdTabl1CGNy1QVjEf_6UQNT1Cho1F9u_CVpOjM6WfNw_IMbHdh763JhDl0vlnfrmsfECR29UHbyBMIPXCCiB0RAwdNgEkNtUQREKmLVmCFcPcLaXyt_pE7z75v39RGw3LlapyNesv-xVfXZ6dfUjY1rsDe6I1RiFQRIQ20p1c5VwAgnOkAUJ89y1yrFjdQihQ8MbXSGt6eWlwGa1BLG8nQzWWOC8wjN3LlaIC4KYMW42aIOC3VjhYYkS5gnGBnZAbvlIfMOc-JkrF0j5AIjhYYkS5gsBiwXEUYilV."/>
+    <hyperlink ref="F12" r:id="rId10" display="https://detail.tmall.com/item.htm?id=641493636015&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.66912e8dUnU3HP&amp;pisk=g0L8smfSGxDuTJ8RiQo0K7BtZlhDRmAygLR_-9XuAKpvpCFkqMXhAwpwBMan4ajdJK6DrTAlP6sBKdtlF3X3Jep2ez4hPp0ddC-qTTfkrWCBcLUHqQXkDWQyo34hEY7pOdbKIA0iSQRPuwMiIYohfz71s9ZQK_1flwfpmQZu1QRP89N0dcxXaWp22_F5O9GAl6C7Aws5OZNf36q5dp65c-1O_w_BdTabl1CGNy1QVjEf_6UQNT1Cho1F9u_CVpOjM6WfNw_IMbHdh763JhDl0vlnfrmsfECR29UHbyBMIPXCCiB0RAwdNgEkNtUQREKmLVmCFcPcLaXyt_pE7z75v39RGw3LlapyNesv-xVfXZ6dfUjY1rsDe6I1RiFQRIQ20p1c5VwAgnOkAUJ89y1yrFjdQihQ8MbXSGt6eWlwGa1BLG8nQzWWOC8wjN3LlaIC4KYMW42aIOC3VjhYYkS5gnGBnZAbvlIfMOc-JkrF0j5AIjhYYkS5gsBiwXEUYilV." tooltip="https://detail.tmall.com/item.htm?id=641493636015&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.66912e8dUnU3HP&amp;pisk=g0L8smfSGxDuTJ8RiQo0K7BtZlhDRmAygLR_-9XuAKpvpCFkqMXhAwpwBMan4ajdJK6DrTAlP6sBKdtlF3X3Jep2ez4hPp0ddC-qTTfkrWCBcLUHqQXkDWQyo34hEY7pOdbKIA0iSQRPuwMi"/>
     <hyperlink ref="F15" r:id="rId11" display="https://detail.tmall.com/item.htm?detail_redpacket_pop=true&amp;id=549640610734&amp;ltk2=1751972028937ji8m1jp7ssaci3uz6zdys&amp;ns=1&amp;priceTId=undefined&amp;query=m5%E8%9E%BA%E6%AF%8D&amp;skuId=5618615008389&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%2203691c8cc532103ef1eb26baed91686a%22%7D&amp;xxc=ad_ztc"/>
-    <hyperlink ref="F23" r:id="rId12" display="https://buyertrade.taobao.com/trade/itemlist/list_bought_items.htm?spm=a21bo.jianhua/a.bought.1.5af92a89D0sxQv"/>
+    <hyperlink ref="F23" r:id="rId12" display="https://detail.tmall.com/item.htm?id=667472622255&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.33e62e8dvP4q1L&amp;pisk=gzE7TiY8oQA5fD4tPDW2fTmJawiIFtSNvpMLIJKyp0n-RHez1v-E8aDBAjwOEb7hrWab9S0rwXuEAvNZi8-FE8WCAJetwDzravF4OSYzaklUgMwg14-zpkJuo5y94u7oYHioxDCN_GSNE8mnvsUq8PAlDYDCY33-e0mv_b9PWGSaE-9reOyAbkWHIHk2JHFKyqpxCjLpJ4FKknHnM3Hp2vdAhvcxvv3-pnHxdARpw3FpkEHtBQHKp23xkAksvXFKvtwxiviK9Wndh-hHdIMFPve5C1a_z_xZk8hXvHERxVGsBe-eYyM-Pke-G-y4cYgS6qbgTgr8gJEzqqbwSD245WaLMit7O8UT9brA6HGUSu2YcV9pY-ijORc-fpI8h0GSWoPlXHPThJUZloWOj0i-wyouLd1zhuNzEowepEnS4rg_VcIMwXz4CkMQx6jb18UT9ysPVhl1WMLBhVxIhfWfheY3F_O4bf8-gd3-nYINhtOX-4HmhfWfheYnyxD87t6XGef.." tooltip="https://detail.tmall.com/item.htm?id=667472622255&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.33e62e8dvP4q1L&amp;pisk=gzE7TiY8oQA5fD4tPDW2fTmJawiIFtSNvpMLIJKyp0n-RHez1v-E8aDBAjwOEb7hrWab9S0rwXuEAvNZi8-FE8WCAJetwDzravF4OSYzaklUgMwg14-zpkJuo5y94u7oYHioxDCN_GSNE8mn"/>
     <hyperlink ref="F16" r:id="rId13" display="https://detail.tmall.com/item.htm?id=549640610734&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.1e082e8dJs5w32&amp;pisk=gHo3_1w_52zQ_gATWcZBu6qVuZTtRkZS4bI8wuFy75P6FwQpdzyrEbm-JYP8qbcoZWUyOknosxMJd0pQY32rMfq-pWF-sLcKFgdBPkIPZXM2OvFJd0VzsXluPpN8a7c-U2p9DnHIduZzZIKvDc8xORlh8WPyUPy7UdeeC2-ruuZyMQbO4yt0VXrRB9_P7RP_E85zab-a78NaUwrra5za3-CU4blz_AyQn97P8g-aQ5wc49yzaA7ae85FY7lrQd28EuPrayJiQjf2TWorvcROUHSOhzRsYJ43gvPnpAmwlP_Ip5mxVcynPJMFPgSrjJ4nbr7E3Y4KzxajvvKlfkHm7lynanRUbxuiHymHiMF7rccnrXpRPR0oUmZQmT-EIkV3uD4CFicqIYuYScp2ckqUT4EIetAKIDcKdcDRUNr3vV4mxo-fT73tn02oVQtiivuqa4jrjN7VxkS7QLnNPaaUCRVA7DF2FEN299JMIZV78RwUMdvGPaaUCRVvIdbmFyy_LSC.."/>
     <hyperlink ref="F17" r:id="rId14" display="https://detail.tmall.com/item.htm?id=809364062256&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.1e082e8dJs5w32&amp;pisk=gXH3sUq_1XPI37LT6AwBgw2VgsOTpJwSU4B8y8Uy_Pz6V6CpA7rrq4D-90z8E40oryFyRJHoSmiJAYKQLLqrkV2-vyU-S30KVTLBNJBPr2i2RDUJAY4zS2uuNHa8zz0-4XK9HKnIA8wzrEpvHARxRluhU9Pe45r8qhEefXJrg8wykUfOUW90F2yRXn5F_lz_qu7zz4Ja_uaa46yrzPPa0oQUU4uz7crQmM5PTTJabPZUzMzU4loamuEPTuurbhq77zyzT4oZi58U8YkKQFIyLOIbEgHYxW4qYymKjA-gw6i_SbhSBkc7GD55UTkgxWDag6oqqWhrcSMKvLX_pmcaQk0y3eyZ0fmYtvYcpzNoI2coJ3C7jbmrhJwc4pogKyVqKWs5nqoi4jFiBnJbKJzEwJiRmeniK2nII0IP_J2KsSD33K_UyfnmEuDWPd0mYjurZg-G_sW3LTZw2A55NWr_jrCZpr-WGr8dYhxGizNUfkzvjhf5NWr_jrKMjsm7TlZUk"/>
     <hyperlink ref="F18" r:id="rId15" display="https://item.taobao.com/item.htm?spm=tbpc.boughtlist.suborder_itemtitle.1.1e082e8dJs5w32&amp;id=739009813395&amp;pisk=gS4g6qGIAlo6EvXKvyg14d0y43sLXVgbu-LxHqHVYvkCGhKO1ml4i-4YXSkxo-20nAnVCVU0K7NA1rCs7Zc4eJ0Y6AHYKs2TGEB1cVL2nRNPC5HA1rDqKRymc1Mx3x2YglCdyaF_1qgqnTQRyyS8CXrDuFlVgBltofrLbhEz1qgVnBLV2aV_CJRJHhlqT6cxMK843fJELvGvbxyqQDJEZbgqu-kaTBl-snRwuhlFtblX_xu2bBuEgjOwb-uVtWkIgqla3ql0aOkauPUFpI7wJQZholGijYPZI5eL83gkfJM35yaosoZu_nT2uycijyoyb7PmXoPSVPFOoegTZkuEs-7PQ2Pzx7ngSTYthm43Io2OMnG3mSzS54AV7W0iI0zifITuUWV42D4daagi7Arx5SdlBW4gB5a3MI-ESVEnqP0PPdkYv74mir6f-8Va4-rc4Exe4F0wlX5Y8ntjbXGneHztUssSUOdNt6xohclI_YChtntjbXGne6fHqSiZOfkR."/>
@@ -1698,6 +1722,7 @@
     <hyperlink ref="F13" r:id="rId16" display="https://detail.tmall.com/item.htm?id=40189700729&amp;pisk=gJG_s6cDkGj6j-PAlRYFOvo2Z7Vb5eRyMZaxrqCNk5FThs3ZVr543d4fGkgJSlJDImMIDD2aXoy4GrizxV52SV8XGq38XSkabrnEcDXZbjrqYIgoVR5Zkj7iK0uR_fJggsNgiSKy4QRr7VV0MGdi8PsgJzU6grETD5Vd4l_weQRrS2_aWUupaj8X6P41HsnYBJQLrkUTkOU9RJUzkSCTH1BdvkqLMreYMyBLkr6OHRnYJ2U4WNITMSILpPrLDSFxD2LQlkExMxvQJdZE5Fr6zQUBBBM3AsCxOyt08V_1dol45YqSWVvkEE4_Cu3TAhCJWBwKo-GcoswZWYm0ycI9fS3QP0aSfK70fv3r_x36O3FZsVH8HbKcH0Nsc8hTdZCjS5r3OyhJuTqEOlox1JLPN-PKa8FtLpxa35aSDfm1lsn-84lgKjt5voDarWUsDQKC4zCzVDHGhwwlGyZyRe6cnVt1Ybz4fVUbBy4hzeTCUt2T-yZyRe6cnRU3-Q8BRTWc.&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.66b22e8dWKj7Gf"/>
     <hyperlink ref="F24" r:id="rId17" display="https://item.taobao.com/item.htm?spm=tbpc.boughtlist.suborder_itemtitle.1.12492e8dAwCxKM&amp;id=630808292950&amp;pisk=gprTs5D1d6fGaYZtKR7HilnkVyWnBw2aL5yWmjcMlWFLM8pgSqcmlmFzwqtc7c0xDWG3jf2ifxgbi7ai1PcDDoFU6hxmfSjxG8zF3fDgjKHbR5K0SRcgJKnaxPxms1oYh7mAZ_jlqRyZYm1lZXrvVsnSUxM6if9BRmDY-RTMFRyZ0j9HGa4QQKFhug9shj6KAxH6lmMjhJ6KHYhjcfgXOeMSOmiX5FTIdxktGjgbGeGI3AGXGqTsRMMohmT_GVsCpxlICmijMt5xOdGDDzfxdedv5g-pvkHtWjKmPneQq30xNtc90nltsVLgCXKXckUhggbj1aJngccanAFV4hoskPNtdmIvAcFaCogLm6vIyDGxPl0pFHg36x3Sc2pXcJnU8SMnVgOKLywgllP9HnMaju0xa2BX0qmQq4a76KWzdcMbg4rcahl_h8rzr0IvAc3f4Squ2GAyZbHD59BpuEusLy6btD2BkU3IpbXODE8q89kKZ9BpuEusLvhlBtL2u2WF." tooltip="https://item.taobao.com/item.htm?spm=tbpc.boughtlist.suborder_itemtitle.1.12492e8dAwCxKM&amp;id=630808292950&amp;pisk=gprTs5D1d6fGaYZtKR7HilnkVyWnBw2aL5yWmjcMlWFLM8pgSqcmlmFzwqtc7c0xDWG3jf2ifxgbi7ai1PcDDoFU6hxmfSjxG8zF3fDgjKHbR5K0SRcgJKnaxPxms1oYh7mAZ_jlqRyZYm1lZ"/>
     <hyperlink ref="F25" r:id="rId17" display="https://item.taobao.com/item.htm?spm=tbpc.boughtlist.suborder_itemtitle.1.12492e8dAwCxKM&amp;id=630808292950&amp;pisk=gprTs5D1d6fGaYZtKR7HilnkVyWnBw2aL5yWmjcMlWFLM8pgSqcmlmFzwqtc7c0xDWG3jf2ifxgbi7ai1PcDDoFU6hxmfSjxG8zF3fDgjKHbR5K0SRcgJKnaxPxms1oYh7mAZ_jlqRyZYm1lZXrvVsnSUxM6if9BRmDY-RTMFRyZ0j9HGa4QQKFhug9shj6KAxH6lmMjhJ6KHYhjcfgXOeMSOmiX5FTIdxktGjgbGeGI3AGXGqTsRMMohmT_GVsCpxlICmijMt5xOdGDDzfxdedv5g-pvkHtWjKmPneQq30xNtc90nltsVLgCXKXckUhggbj1aJngccanAFV4hoskPNtdmIvAcFaCogLm6vIyDGxPl0pFHg36x3Sc2pXcJnU8SMnVgOKLywgllP9HnMaju0xa2BX0qmQq4a76KWzdcMbg4rcahl_h8rzr0IvAc3f4Squ2GAyZbHD59BpuEusLy6btD2BkU3IpbXODE8q89kKZ9BpuEusLvhlBtL2u2WF."/>
+    <hyperlink ref="F26" r:id="rId18" display="https://detail.tmall.com/item.htm?id=641493636015&amp;pisk=g0L8smfSGxDuTJ8RiQo0K7BtZlhDRmAygLR_-9XuAKpvpCFkqMXhAwpwBMan4ajdJK6DrTAlP6sBKdtlF3X3Jep2ez4hPp0ddC-qTTfkrWCBcLUHqQXkDWQyo34hEY7pOdbKIA0iSQRPuwMiIYohfz71s9ZQK_1flwfpmQZu1QRP89N0dcxXaWp22_F5O9GAl6C7Aws5OZNf36q5dp65c-1O_w_BdTabl1CGNy1QVjEf_6UQNT1Cho1F9u_CVpOjM6WfNw_IMbHdh763JhDl0vlnfrmsfECR29UHbyBMIPXCCiB0RAwdNgEkNtUQREKmLVmCFcPcLaXyt_pE7z75v39RGw3LlapyNesv-xVfXZ6dfUjY1rsDe6I1RiFQRIQ20p1c5VwAgnOkAUJ89y1yrFjdQihQ8MbXSGt6eWlwGa1BLG8nQzWWOC8wjN3LlaIC4KYMW42aIOC3VjhYYkS5gnGBnZAbvlIfMOc-JkrF0j5AIjhYYkS5gsBiwXEUYilV.&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.66912e8dUnU3HP"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1714,7 +1739,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1731,7 +1756,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
   <si>
     <t>序号</t>
   </si>
@@ -224,6 +224,24 @@
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?id=641493636015&amp;pisk=g0L8smfSGxDuTJ8RiQo0K7BtZlhDRmAygLR_-9XuAKpvpCFkqMXhAwpwBMan4ajdJK6DrTAlP6sBKdtlF3X3Jep2ez4hPp0ddC-qTTfkrWCBcLUHqQXkDWQyo34hEY7pOdbKIA0iSQRPuwMiIYohfz71s9ZQK_1flwfpmQZu1QRP89N0dcxXaWp22_F5O9GAl6C7Aws5OZNf36q5dp65c-1O_w_BdTabl1CGNy1QVjEf_6UQNT1Cho1F9u_CVpOjM6WfNw_IMbHdh763JhDl0vlnfrmsfECR29UHbyBMIPXCCiB0RAwdNgEkNtUQREKmLVmCFcPcLaXyt_pE7z75v39RGw3LlapyNesv-xVfXZ6dfUjY1rsDe6I1RiFQRIQ20p1c5VwAgnOkAUJ89y1yrFjdQihQ8MbXSGt6eWlwGa1BLG8nQzWWOC8wjN3LlaIC4KYMW42aIOC3VjhYYkS5gnGBnZAbvlIfMOc-JkrF0j5AIjhYYkS5gsBiwXEUYilV.&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.66912e8dUnU3HP</t>
+  </si>
+  <si>
+    <t>张大头 步进闭环拓展板</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?ft=t&amp;id=838884896678&amp;pisk=g1qnYWxwcyuI3ZxB-TmCR5KLzb_tpDiSa7K-w0hP7fl_p3BQpPDzw565dDerZ7Vt1JKRdJUME-NgZ46Iwbluw8zdBiIYdJiS40fADiIVjm_4ZvoyYVWrExxPB2P9ueWK4sCAqFpZR6nzwqxvclyZ1YDyaePr7GkI_YkEL7lZ7xkvT0ozaO0ZhvJEL0kE7RkK_Q-e43JZQvMHzU-e4O2Z1Yora7uFIRlsU0lrMVLEMuz4b_2blPe3kiNtK2c4LXyLel7n7ewIsK90jPvqGJJW43riK2qW2GMje2UzhqZLdgxsv-4ZbvVP06oa3P2x-kfDvbNQq4qrSLK8K0qL3zuGLMyixX0-BWjA1D4zOu0Q-L6bQDP_ljgF51Mgvo3oGVANTReiTq4u91tr9r2asqE96nna3PmG43LwuYcBVAW8bUTS8AMiMFrKgTNhK-d1IOYYF2kshjBGIUTS8AMiMOXMkugECxGA.&amp;spm=pc_detail.29232929%2Fevo365560b447259.202205.1.58337dd6pnj7sb</t>
+  </si>
+  <si>
+    <t>不锈钢圆头螺丝</t>
+  </si>
+  <si>
+    <t>M3*28</t>
+  </si>
+  <si>
+    <t>用来固定驱动器与35行星减速步进电机</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=37753866337&amp;pisk=gW3aTSN5zFLapMWB5vUVUoGzTdzTjrJWnqwbijc01R2MD5TcujluGCpv6DPmhvdv6PG03xkQpZNXXKQqLAGoflMjf-V0Kvc15-TT0xlSex_XWcNcuvGYmxgqMZPmixdThCKI6fUYoL9S3UGt6F_n-mgNjycn97S0iHZGbel6OL9WPE-GtrJwFxaed1o3a740sobcxBPbNSjinobntJFYiOVcSBl3pJbgiS40x9VYwG40INXh-SVGmi2gI9AUGJVGsx4DTy2Lir2mnrcY1xDO8JrMtu9x4BLfIfeosJ7cz_hTj3ldcw7et5ZLEk4loWgU_lyosVG1jLPnR2r7As9u-bnIIWzyuw4a4cDatXpVzRmSwbw0j1bi9PyUxRhFIGVz7RroSlL5lPEmY2zsSKI-OXyg4yiBvdZb7Ao8elxppxlUCx0axOJQh0GISkkkdwkY0cDatzjrCtF3qSgxbtj4jWFUFBReGf7tvLsiimIADk-LT8OJwiIYjWFUFBRFDiEEJWyWwQC..&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.60fb2e8dGA9rv8</t>
   </si>
 </sst>
 </file>
@@ -870,7 +888,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -902,6 +920,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1215,10 +1242,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1696,6 +1723,42 @@
       <c r="E26" s="10"/>
       <c r="F26" s="8" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1" spans="1:6">
+      <c r="A27" s="11">
+        <v>28</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11">
+        <v>1</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1" spans="1:6">
+      <c r="A28" s="11">
+        <v>29</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="11">
+        <v>4</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1723,6 +1786,8 @@
     <hyperlink ref="F24" r:id="rId17" display="https://item.taobao.com/item.htm?spm=tbpc.boughtlist.suborder_itemtitle.1.12492e8dAwCxKM&amp;id=630808292950&amp;pisk=gprTs5D1d6fGaYZtKR7HilnkVyWnBw2aL5yWmjcMlWFLM8pgSqcmlmFzwqtc7c0xDWG3jf2ifxgbi7ai1PcDDoFU6hxmfSjxG8zF3fDgjKHbR5K0SRcgJKnaxPxms1oYh7mAZ_jlqRyZYm1lZXrvVsnSUxM6if9BRmDY-RTMFRyZ0j9HGa4QQKFhug9shj6KAxH6lmMjhJ6KHYhjcfgXOeMSOmiX5FTIdxktGjgbGeGI3AGXGqTsRMMohmT_GVsCpxlICmijMt5xOdGDDzfxdedv5g-pvkHtWjKmPneQq30xNtc90nltsVLgCXKXckUhggbj1aJngccanAFV4hoskPNtdmIvAcFaCogLm6vIyDGxPl0pFHg36x3Sc2pXcJnU8SMnVgOKLywgllP9HnMaju0xa2BX0qmQq4a76KWzdcMbg4rcahl_h8rzr0IvAc3f4Squ2GAyZbHD59BpuEusLy6btD2BkU3IpbXODE8q89kKZ9BpuEusLvhlBtL2u2WF." tooltip="https://item.taobao.com/item.htm?spm=tbpc.boughtlist.suborder_itemtitle.1.12492e8dAwCxKM&amp;id=630808292950&amp;pisk=gprTs5D1d6fGaYZtKR7HilnkVyWnBw2aL5yWmjcMlWFLM8pgSqcmlmFzwqtc7c0xDWG3jf2ifxgbi7ai1PcDDoFU6hxmfSjxG8zF3fDgjKHbR5K0SRcgJKnaxPxms1oYh7mAZ_jlqRyZYm1lZ"/>
     <hyperlink ref="F25" r:id="rId17" display="https://item.taobao.com/item.htm?spm=tbpc.boughtlist.suborder_itemtitle.1.12492e8dAwCxKM&amp;id=630808292950&amp;pisk=gprTs5D1d6fGaYZtKR7HilnkVyWnBw2aL5yWmjcMlWFLM8pgSqcmlmFzwqtc7c0xDWG3jf2ifxgbi7ai1PcDDoFU6hxmfSjxG8zF3fDgjKHbR5K0SRcgJKnaxPxms1oYh7mAZ_jlqRyZYm1lZXrvVsnSUxM6if9BRmDY-RTMFRyZ0j9HGa4QQKFhug9shj6KAxH6lmMjhJ6KHYhjcfgXOeMSOmiX5FTIdxktGjgbGeGI3AGXGqTsRMMohmT_GVsCpxlICmijMt5xOdGDDzfxdedv5g-pvkHtWjKmPneQq30xNtc90nltsVLgCXKXckUhggbj1aJngccanAFV4hoskPNtdmIvAcFaCogLm6vIyDGxPl0pFHg36x3Sc2pXcJnU8SMnVgOKLywgllP9HnMaju0xa2BX0qmQq4a76KWzdcMbg4rcahl_h8rzr0IvAc3f4Squ2GAyZbHD59BpuEusLy6btD2BkU3IpbXODE8q89kKZ9BpuEusLvhlBtL2u2WF."/>
     <hyperlink ref="F26" r:id="rId18" display="https://detail.tmall.com/item.htm?id=641493636015&amp;pisk=g0L8smfSGxDuTJ8RiQo0K7BtZlhDRmAygLR_-9XuAKpvpCFkqMXhAwpwBMan4ajdJK6DrTAlP6sBKdtlF3X3Jep2ez4hPp0ddC-qTTfkrWCBcLUHqQXkDWQyo34hEY7pOdbKIA0iSQRPuwMiIYohfz71s9ZQK_1flwfpmQZu1QRP89N0dcxXaWp22_F5O9GAl6C7Aws5OZNf36q5dp65c-1O_w_BdTabl1CGNy1QVjEf_6UQNT1Cho1F9u_CVpOjM6WfNw_IMbHdh763JhDl0vlnfrmsfECR29UHbyBMIPXCCiB0RAwdNgEkNtUQREKmLVmCFcPcLaXyt_pE7z75v39RGw3LlapyNesv-xVfXZ6dfUjY1rsDe6I1RiFQRIQ20p1c5VwAgnOkAUJ89y1yrFjdQihQ8MbXSGt6eWlwGa1BLG8nQzWWOC8wjN3LlaIC4KYMW42aIOC3VjhYYkS5gnGBnZAbvlIfMOc-JkrF0j5AIjhYYkS5gsBiwXEUYilV.&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.66912e8dUnU3HP"/>
+    <hyperlink ref="F27" r:id="rId19" display="https://item.taobao.com/item.htm?ft=t&amp;id=838884896678&amp;pisk=g1qnYWxwcyuI3ZxB-TmCR5KLzb_tpDiSa7K-w0hP7fl_p3BQpPDzw565dDerZ7Vt1JKRdJUME-NgZ46Iwbluw8zdBiIYdJiS40fADiIVjm_4ZvoyYVWrExxPB2P9ueWK4sCAqFpZR6nzwqxvclyZ1YDyaePr7GkI_YkEL7lZ7xkvT0ozaO0ZhvJEL0kE7RkK_Q-e43JZQvMHzU-e4O2Z1Yora7uFIRlsU0lrMVLEMuz4b_2blPe3kiNtK2c4LXyLel7n7ewIsK90jPvqGJJW43riK2qW2GMje2UzhqZLdgxsv-4ZbvVP06oa3P2x-kfDvbNQq4qrSLK8K0qL3zuGLMyixX0-BWjA1D4zOu0Q-L6bQDP_ljgF51Mgvo3oGVANTReiTq4u91tr9r2asqE96nna3PmG43LwuYcBVAW8bUTS8AMiMFrKgTNhK-d1IOYYF2kshjBGIUTS8AMiMOXMkugECxGA.&amp;spm=pc_detail.29232929%2Fevo365560b447259.202205.1.58337dd6pnj7sb"/>
+    <hyperlink ref="F28" r:id="rId20" display="https://detail.tmall.com/item.htm?id=37753866337&amp;pisk=gW3aTSN5zFLapMWB5vUVUoGzTdzTjrJWnqwbijc01R2MD5TcujluGCpv6DPmhvdv6PG03xkQpZNXXKQqLAGoflMjf-V0Kvc15-TT0xlSex_XWcNcuvGYmxgqMZPmixdThCKI6fUYoL9S3UGt6F_n-mgNjycn97S0iHZGbel6OL9WPE-GtrJwFxaed1o3a740sobcxBPbNSjinobntJFYiOVcSBl3pJbgiS40x9VYwG40INXh-SVGmi2gI9AUGJVGsx4DTy2Lir2mnrcY1xDO8JrMtu9x4BLfIfeosJ7cz_hTj3ldcw7et5ZLEk4loWgU_lyosVG1jLPnR2r7As9u-bnIIWzyuw4a4cDatXpVzRmSwbw0j1bi9PyUxRhFIGVz7RroSlL5lPEmY2zsSKI-OXyg4yiBvdZb7Ao8elxppxlUCx0axOJQh0GISkkkdwkY0cDatzjrCtF3qSgxbtj4jWFUFBReGf7tvLsiimIADk-LT8OJwiIYjWFUFBRFDiEEJWyWwQC..&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.60fb2e8dGA9rv8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
   <si>
     <t>序号</t>
   </si>
@@ -193,10 +193,13 @@
     <t>3M同步带</t>
   </si>
   <si>
-    <t>3M-长171-宽11</t>
-  </si>
-  <si>
-    <t>3M-长177-宽11</t>
+    <t>3M-长171-宽10</t>
+  </si>
+  <si>
+    <t>任意同步带淘宝店定制即可</t>
+  </si>
+  <si>
+    <t>3M-长177-宽10</t>
   </si>
   <si>
     <t>联轴器</t>
@@ -888,7 +891,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -920,15 +923,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1245,7 +1239,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1634,7 +1628,9 @@
       <c r="D21" s="5">
         <v>1</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="F21" s="10"/>
     </row>
     <row r="22" ht="15" customHeight="1" spans="1:6">
@@ -1645,12 +1641,14 @@
         <v>53</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D22" s="5">
         <v>2</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="F22" s="10"/>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:6">
@@ -1658,17 +1656,17 @@
         <v>24</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D23" s="5">
         <v>5</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" spans="1:6">
@@ -1676,17 +1674,17 @@
         <v>25</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D24" s="5">
         <v>3</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:6">
@@ -1694,17 +1692,17 @@
         <v>26</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D25" s="5">
         <v>2</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" spans="1:6">
@@ -1715,50 +1713,50 @@
         <v>33</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D26" s="10">
         <v>10</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:6">
-      <c r="A27" s="11">
+      <c r="A27" s="5">
         <v>28</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11">
+      <c r="B27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5">
         <v>1</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="12" t="s">
-        <v>66</v>
+      <c r="E27" s="5"/>
+      <c r="F27" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:6">
-      <c r="A28" s="11">
+      <c r="A28" s="5">
         <v>29</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="11" t="s">
+      <c r="B28" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="11">
+      <c r="C28" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="5">
         <v>4</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" s="13" t="s">
+      <c r="E28" s="5" t="s">
         <v>70</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1239,7 +1239,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1431,7 +1431,7 @@
       <c r="E10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
     <hyperlink ref="F5" r:id="rId3" display="https://item.taobao.com/item.htm?id=673302946671&amp;pisk=g3S7660Robc5PiKKdU2qciubWPtIR-ravv9dI9nrp3KJRDBP1poe8zvIAI6TEQz3r6_f9sYywB8eAp1wiToUETyQA9B9wH7yapCVOs0PaMRFgk6G1UoPpMklo1Wt4gzkYDtkxHFa_lraETxHvgyeW-loMpv7YDp-23xx_QMzWlrNEtMyeRWYbMyI0Mp-JDCpyEHvCIhppHCpkmpHM0pK2phYhIAx24pJpqKvIdkJvpnJMIpHLYnppphvDIvpvBCpv-tviphvdA9QPQX7UCxIISqUc6OjvDIXHWxGFynWQMpSXCXXG5HNccYW6Tdjv5DgrvOBiGF4ltfcy_JcOlNXDOQX2L1LXVRAltIk7t48GOtWZFIv5ymh131BWgLjpc-lhZxXHGeESISXa6IWkRo68nIwW3Q4o78eVd1dq_MIv1BVQgYcA5GvtaJMDL1LXSsrAcR_Wk3IhFmBhCybh20hF7GVbCuJgALJnLT4h-GR-UpDhCybh20HyKvWg-wjwwf..&amp;skuId=5032954871244&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.66912e8dUnU3HP" tooltip="https://item.taobao.com/item.htm?id=673302946671&amp;pisk=g3S7660Robc5PiKKdU2qciubWPtIR-ravv9dI9nrp3KJRDBP1poe8zvIAI6TEQz3r6_f9sYywB8eAp1wiToUETyQA9B9wH7yapCVOs0PaMRFgk6G1UoPpMklo1Wt4gzkYDtkxHFa_lraETxHvgyeW-loMpv7YDp-23xx_QMzWlrNEtMyeRWYbMyI0Mp-JDCpyEHvCIhpp"/>
     <hyperlink ref="F6" r:id="rId4" display="https://item.taobao.com/item.htm?id=21034340111&amp;pisk=gDPL_i0C5Gj3ZzNKSyWMqenA-KQMpO4U7kzXZ0mHFlET2rL3KYmoFbE4DYOlLXD-wligtD4nO4M7qownAJmkw7EavBAoOuf-VryNzD03tU37CkduKym3BUhUsJAoxMl8PocRmifciyzE_bscmMWohBljkeOBqYts1b08Iy9HlyzEa0TMVt2_8UEanT8SP0_t143BFbMINhMsb4vIVuiIChgxubG7VDO61q3mRQgWdNHsr4OBNDi75fgoybgIVuG_5cuSN2ZSNjhP2cTIqQecxASPrCT9xHVtJvnJZuA-LROmwmOiYBAnvWMpKyi9NQNTIg5cFD62S0lnYz0L4sREOYeQvVGRwCGLYyNSB7jM5xhs2xNnBEOsIk3-hbM9PQat_RrSSj1XXVy_-8NUvUdS8WVmemkOPQko1SDbhkLPuPGIPuk4ZiREAza4g-cAwCGKFgr0iSCH0nmxrp_OWLJrdVy1Plcg5LpxCVncJ_pyUA7ZWmbOWLJrdVutmwQJULkN7&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.66912e8dUnU3HP&amp;sku_properties=1627207%3A33214301305"/>
     <hyperlink ref="F7" r:id="rId5" display="https://item.taobao.com/item.htm?spm=tbpc.boughtlist.suborder_itemtitle.1.66912e8dUnU3HP&amp;id=723690490192&amp;pisk=gDY__fq9xR2sXf7YGGcURerI20_j5XurkS1vZIUaMNQOcrdwFszV0cfbl9O-sOomjKtBHpjNBtSVls9PKCzqsCljlIdRBZ-NQspehpqwQEW2LqOkFGzwMEPMxLR87FoGur_GoZHrU4ursCbckFlV2XygvsCSulEOkNbLUONZ24uysBNN6bRKzElbLUfaDrpAXMFdN9COHPIxOMCPMZUODPELp9XdkPCO6kEdg_EY6KUOv9C51tUYXZQKJs6d6opAMXOdKs_AHjh7Nsi1ICGNEZNoK5NWk9aYke1KnCA_XlXJI1gVLQWIeoYQrG6J69axE7mgGt6HyvoBtpx9Q6vjPv_pwH_O1K3849KB9FjytcHBNN6G2eISmrv55KsJWMNYzNABxw1pyjrlLe6wHFsKazsVJUSRWHonQi71NKLMCSaveBRySMYjFJBDb_bd1K3-dgJQzTi-koNCqr1CUXGQmoAsCJ8PUlBUwGCh1MlIORKcX6fCUXGQmojOt16EOXw9m"/>
-    <hyperlink ref="F8" r:id="rId6" display="https://item.taobao.com/item.htm?spm=tbpc.boughtlist.suborder_itemtitle.1.66912e8dUnU3HP&amp;id=581976167345&amp;pisk=gHfasYTSa5FaVyt9I6OqYMaqExO9dIr7mstXoZbD5hxgHFNmgZ7klPEYW98ccMUYWC_D0iSBvjTbBohVYG_lCdsfCnYDxMbs1nN93i752iGb6OTmgM_vni1Vkj8coiU9cPeCWNdviuZ507_OWiVXrO5ZsDxhJUimIJ9iQW7_RuZ7NSyi-IraVisj60VHzUADSKcmKy8XocYcmKch-HLvocYmsyzevEHiIEYDteYy7IDiidVnxU8qncxMmX4eyHcMiIjDty8xMP7GoX8WIrep6Ni3RcKWqNxEibuRCdVh2xisf2T6L3vhejYCTFJwqNf15Aqy-61eFpgbqBbRdGYeaSlH_LWGbebL0b-GFaQWmd0iswdwYpxO8cDMzC-wE1vTNjO9n95e11qxew_ejLRCdJE6hCSNe3pgpkIV8hsc_pmaAn65R1vFqkGFDKWGbeAl4nmv-LYfMOom3dYp83aU8r_Z69ESIZXxHxpHwe-75FMxHdYp83aU8xHvKULeVPT1."/>
+    <hyperlink ref="F8" r:id="rId6" display="https://item.taobao.com/item.htm?spm=tbpc.boughtlist.suborder_itemtitle.1.66912e8dUnU3HP&amp;id=581976167345&amp;pisk=gHfasYTSa5FaVyt9I6OqYMaqExO9dIr7mstXoZbD5hxgHFNmgZ7klPEYW98ccMUYWC_D0iSBvjTbBohVYG_lCdsfCnYDxMbs1nN93i752iGb6OTmgM_vni1Vkj8coiU9cPeCWNdviuZ507_OWiVXrO5ZsDxhJUimIJ9iQW7_RuZ7NSyi-IraVisj60VHzUADSKcmKy8XocYcmKch-HLvocYmsyzevEHiIEYDteYy7IDiidVnxU8qncxMmX4eyHcMiIjDty8xMP7GoX8WIrep6Ni3RcKWqNxEibuRCdVh2xisf2T6L3vhejYCTFJwqNf15Aqy-61eFpgbqBbRdGYeaSlH_LWGbebL0b-GFaQWmd0iswdwYpxO8cDMzC-wE1vTNjO9n95e11qxew_ejLRCdJE6hCSNe3pgpkIV8hsc_pmaAn65R1vFqkGFDKWGbeAl4nmv-LYfMOom3dYp83aU8r_Z69ESIZXxHxpHwe-75FMxHdYp83aU8xHvKULeVPT1." tooltip="https://item.taobao.com/item.htm?spm=tbpc.boughtlist.suborder_itemtitle.1.66912e8dUnU3HP&amp;id=581976167345&amp;pisk=gHfasYTSa5FaVyt9I6OqYMaqExO9dIr7mstXoZbD5hxgHFNmgZ7klPEYW98ccMUYWC_D0iSBvjTbBohVYG_lCdsfCnYDxMbs1nN93i752iGb6OTmgM_vni1Vkj8coiU9cPeCWNdviuZ507_OW"/>
     <hyperlink ref="F9" r:id="rId7" display="https://item.taobao.com/item.htm?spm=tbpc.boughtlist.suborder_itemtitle.1.66912e8dUnU3HP&amp;id=736578173538&amp;pisk=gXtT_QXsdXcgEs-OKdu3iRC-IzHnX2vwLCJ7msfglBdpMLeMSZfclidywZZm7GbADB1Hj1vGft_XiQTG1Ff0Dnde6lqcfImAGL8E31XMj-BXRCEDSdfMJ-IwxFqcsfSvhQjxZbmoqdJNYiGoZfucPlS5CrabiZ6CRiXv-dagFdJN0sw3G4YBQ-dezz2fhsMdAtB_li_1cW_CTt41GI11RW6RUisXG1ZQATBlCo6b5vFChT4_1o__O66l3Ssf1IsCO6WfcOOfcj4iM6w1ioLoswlqnfFI0m-dBNCYmhrAxBqln_aF6oEA6vb1N0fLcotdBp03SuE-o_TPsafHODqODp6vwTdTOXIXph-RRhGUDwRAOwt18-ZWeCxOAhT8ho9dX6RcdCPt9_twd3SC-0MJdHRMQHp0hm6HZ69wfinSUGI11MBemXr1MeTXjNS41fIXptszi3x-j7Plwt4spvU4uN6eRxOhxpaYyw6dZAnYur7EL9CopvU4uN6Fp_DtHrzV8v5.."/>
     <hyperlink ref="F11" r:id="rId8" display="https://detail.tmall.com/item.htm?id=616787169746&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.66912e8dUnU3HP&amp;pisk=g2Dgsk6FFfP6eYYL9vw6aaGV4uAL-Rwj3qBYk-U2TyzBc1C9fSrqmqDx6mzYnq0moPF25RHm-0ivfxK_QKqqy22xXPUx-n0tctL6GRBVoViy5cUvfx44-Vu0GhaYur0x0fKpeLnsf-w4nUpJerVXm80GgOrw09r_4HEwAfJqa-w2yEfd359uhVyAlb1NTkzQmo740qyUToq43ora3H4Umu1V7qu2xyr8qs54_r5eLyZ8bsWN3wyUqlbN3ou48HqY8ry4_qoEiRW4rxkILeILHtKsngN3j54rbPoTBv5Qv1Ma-R2sIlmHxc43vkH3j54zOQgvBAuK0AH_OQC7hDhoojueKO0mbbu4Wv8PnrhSCDk3ZiWxxJ4mVPyl0do3IPVrpV9PH4on0bFnp3J7IRzZMRiAqFnnIVnsKmIVTR2tt7DgUL_akXnonoDXlp0obbuqigyNT_r05tZeDv5fG5rQxzCEBz-Xhtj4EHxhNCNaAlLJxHffG5rQxzKHx____kZ9y"/>
     <hyperlink ref="F10" r:id="rId9" display="https://item.taobao.com/item.htm?id=736578173538&amp;pisk=gXtT_QXsdXcgEs-OKdu3iRC-IzHnX2vwLCJ7msfglBdpMLeMSZfclidywZZm7GbADB1Hj1vGft_XiQTG1Ff0Dnde6lqcfImAGL8E31XMj-BXRCEDSdfMJ-IwxFqcsfSvhQjxZbmoqdJNYiGoZfucPlS5CrabiZ6CRiXv-dagFdJN0sw3G4YBQ-dezz2fhsMdAtB_li_1cW_CTt41GI11RW6RUisXG1ZQATBlCo6b5vFChT4_1o__O66l3Ssf1IsCO6WfcOOfcj4iM6w1ioLoswlqnfFI0m-dBNCYmhrAxBqln_aF6oEA6vb1N0fLcotdBp03SuE-o_TPsafHODqODp6vwTdTOXIXph-RRhGUDwRAOwt18-ZWeCxOAhT8ho9dX6RcdCPt9_twd3SC-0MJdHRMQHp0hm6HZ69wfinSUGI11MBemXr1MeTXjNS41fIXptszi3x-j7Plwt4spvU4uN6eRxOhxpaYyw6dZAnYur7EL9CopvU4uN6Fp_DtHrzV8v5..&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.66912e8dUnU3HP"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowHeight="17830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
   <si>
     <t>序号</t>
   </si>
@@ -245,6 +245,12 @@
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?id=37753866337&amp;pisk=gW3aTSN5zFLapMWB5vUVUoGzTdzTjrJWnqwbijc01R2MD5TcujluGCpv6DPmhvdv6PG03xkQpZNXXKQqLAGoflMjf-V0Kvc15-TT0xlSex_XWcNcuvGYmxgqMZPmixdThCKI6fUYoL9S3UGt6F_n-mgNjycn97S0iHZGbel6OL9WPE-GtrJwFxaed1o3a740sobcxBPbNSjinobntJFYiOVcSBl3pJbgiS40x9VYwG40INXh-SVGmi2gI9AUGJVGsx4DTy2Lir2mnrcY1xDO8JrMtu9x4BLfIfeosJ7cz_hTj3ldcw7et5ZLEk4loWgU_lyosVG1jLPnR2r7As9u-bnIIWzyuw4a4cDatXpVzRmSwbw0j1bi9PyUxRhFIGVz7RroSlL5lPEmY2zsSKI-OXyg4yiBvdZb7Ao8elxppxlUCx0axOJQh0GISkkkdwkY0cDatzjrCtF3qSgxbtj4jWFUFBReGf7tvLsiimIADk-LT8OJwiIYjWFUFBRFDiEEJWyWwQC..&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.60fb2e8dGA9rv8</t>
+  </si>
+  <si>
+    <t>M3*14</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=40189700729&amp;pisk=g4DbTGfxZZbXwdGLGR-Pd7aWQGe_13JeBGZtxcBVX-eY1OnqRlWa_Iq1CzipmrRMiVGSW4V4kPPaClgUrmWwmm-6CcnLkRl4ul3r54fquAzZzdinRSWqXASmZ2od3xR0QOw0IRLe8pJemm2gBmMFhf_02kqHQsUYk-2R8rs29pJEm0s4DHoJLA7NYAEP6O3TM7p8XzEYXsUvV7EUXRBY6tCRyzqTBRFOHTI8AoIYDP3T20EaDiQYBRQ8woz8WRFOM3i8rlwTWVe9V0hA5TZe5znXAfiN9t-NV0U5BOH72F4ncZ6aVYrXLyobPeKjF9VbJmU5BejHiGa_rvLyN00oMqro5pT7eDh7Hog9p6z-N0H0T0AvPDwboWH8OCXiR-g_9xF5X9ymVb272vKNtzk7uVHbwHWQ_8HU9-hyZEPahkgtnqs1B2nrYxVoCe_8Sjr3eog9pUsrZ9zCpYf1VWX_Vy-WV1fGRqSipy5YzMFYqo8eV31HiSEucV-WVZ54Muqyh3t5tE1..&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.64dd2e8dxU097w</t>
   </si>
 </sst>
 </file>
@@ -891,7 +897,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -923,6 +929,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1236,10 +1248,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1359,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1757,6 +1769,24 @@
       </c>
       <c r="F28" s="8" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1" spans="1:6">
+      <c r="A29" s="11">
+        <v>30</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="11">
+        <v>1</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1786,6 +1816,7 @@
     <hyperlink ref="F26" r:id="rId18" display="https://detail.tmall.com/item.htm?id=641493636015&amp;pisk=g0L8smfSGxDuTJ8RiQo0K7BtZlhDRmAygLR_-9XuAKpvpCFkqMXhAwpwBMan4ajdJK6DrTAlP6sBKdtlF3X3Jep2ez4hPp0ddC-qTTfkrWCBcLUHqQXkDWQyo34hEY7pOdbKIA0iSQRPuwMiIYohfz71s9ZQK_1flwfpmQZu1QRP89N0dcxXaWp22_F5O9GAl6C7Aws5OZNf36q5dp65c-1O_w_BdTabl1CGNy1QVjEf_6UQNT1Cho1F9u_CVpOjM6WfNw_IMbHdh763JhDl0vlnfrmsfECR29UHbyBMIPXCCiB0RAwdNgEkNtUQREKmLVmCFcPcLaXyt_pE7z75v39RGw3LlapyNesv-xVfXZ6dfUjY1rsDe6I1RiFQRIQ20p1c5VwAgnOkAUJ89y1yrFjdQihQ8MbXSGt6eWlwGa1BLG8nQzWWOC8wjN3LlaIC4KYMW42aIOC3VjhYYkS5gnGBnZAbvlIfMOc-JkrF0j5AIjhYYkS5gsBiwXEUYilV.&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.66912e8dUnU3HP"/>
     <hyperlink ref="F27" r:id="rId19" display="https://item.taobao.com/item.htm?ft=t&amp;id=838884896678&amp;pisk=g1qnYWxwcyuI3ZxB-TmCR5KLzb_tpDiSa7K-w0hP7fl_p3BQpPDzw565dDerZ7Vt1JKRdJUME-NgZ46Iwbluw8zdBiIYdJiS40fADiIVjm_4ZvoyYVWrExxPB2P9ueWK4sCAqFpZR6nzwqxvclyZ1YDyaePr7GkI_YkEL7lZ7xkvT0ozaO0ZhvJEL0kE7RkK_Q-e43JZQvMHzU-e4O2Z1Yora7uFIRlsU0lrMVLEMuz4b_2blPe3kiNtK2c4LXyLel7n7ewIsK90jPvqGJJW43riK2qW2GMje2UzhqZLdgxsv-4ZbvVP06oa3P2x-kfDvbNQq4qrSLK8K0qL3zuGLMyixX0-BWjA1D4zOu0Q-L6bQDP_ljgF51Mgvo3oGVANTReiTq4u91tr9r2asqE96nna3PmG43LwuYcBVAW8bUTS8AMiMFrKgTNhK-d1IOYYF2kshjBGIUTS8AMiMOXMkugECxGA.&amp;spm=pc_detail.29232929%2Fevo365560b447259.202205.1.58337dd6pnj7sb"/>
     <hyperlink ref="F28" r:id="rId20" display="https://detail.tmall.com/item.htm?id=37753866337&amp;pisk=gW3aTSN5zFLapMWB5vUVUoGzTdzTjrJWnqwbijc01R2MD5TcujluGCpv6DPmhvdv6PG03xkQpZNXXKQqLAGoflMjf-V0Kvc15-TT0xlSex_XWcNcuvGYmxgqMZPmixdThCKI6fUYoL9S3UGt6F_n-mgNjycn97S0iHZGbel6OL9WPE-GtrJwFxaed1o3a740sobcxBPbNSjinobntJFYiOVcSBl3pJbgiS40x9VYwG40INXh-SVGmi2gI9AUGJVGsx4DTy2Lir2mnrcY1xDO8JrMtu9x4BLfIfeosJ7cz_hTj3ldcw7et5ZLEk4loWgU_lyosVG1jLPnR2r7As9u-bnIIWzyuw4a4cDatXpVzRmSwbw0j1bi9PyUxRhFIGVz7RroSlL5lPEmY2zsSKI-OXyg4yiBvdZb7Ao8elxppxlUCx0axOJQh0GISkkkdwkY0cDatzjrCtF3qSgxbtj4jWFUFBReGf7tvLsiimIADk-LT8OJwiIYjWFUFBRFDiEEJWyWwQC..&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.60fb2e8dGA9rv8"/>
+    <hyperlink ref="F29" r:id="rId21" display="https://detail.tmall.com/item.htm?id=40189700729&amp;pisk=g4DbTGfxZZbXwdGLGR-Pd7aWQGe_13JeBGZtxcBVX-eY1OnqRlWa_Iq1CzipmrRMiVGSW4V4kPPaClgUrmWwmm-6CcnLkRl4ul3r54fquAzZzdinRSWqXASmZ2od3xR0QOw0IRLe8pJemm2gBmMFhf_02kqHQsUYk-2R8rs29pJEm0s4DHoJLA7NYAEP6O3TM7p8XzEYXsUvV7EUXRBY6tCRyzqTBRFOHTI8AoIYDP3T20EaDiQYBRQ8woz8WRFOM3i8rlwTWVe9V0hA5TZe5znXAfiN9t-NV0U5BOH72F4ncZ6aVYrXLyobPeKjF9VbJmU5BejHiGa_rvLyN00oMqro5pT7eDh7Hog9p6z-N0H0T0AvPDwboWH8OCXiR-g_9xF5X9ymVb272vKNtzk7uVHbwHWQ_8HU9-hyZEPahkgtnqs1B2nrYxVoCe_8Sjr3eog9pUsrZ9zCpYf1VWX_Vy-WV1fGRqSipy5YzMFYqo8eV31HiSEucV-WVZ54Muqyh3t5tE1..&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.64dd2e8dxU097w"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17830"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
   <si>
     <t>序号</t>
   </si>
@@ -245,12 +245,6 @@
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?id=37753866337&amp;pisk=gW3aTSN5zFLapMWB5vUVUoGzTdzTjrJWnqwbijc01R2MD5TcujluGCpv6DPmhvdv6PG03xkQpZNXXKQqLAGoflMjf-V0Kvc15-TT0xlSex_XWcNcuvGYmxgqMZPmixdThCKI6fUYoL9S3UGt6F_n-mgNjycn97S0iHZGbel6OL9WPE-GtrJwFxaed1o3a740sobcxBPbNSjinobntJFYiOVcSBl3pJbgiS40x9VYwG40INXh-SVGmi2gI9AUGJVGsx4DTy2Lir2mnrcY1xDO8JrMtu9x4BLfIfeosJ7cz_hTj3ldcw7et5ZLEk4loWgU_lyosVG1jLPnR2r7As9u-bnIIWzyuw4a4cDatXpVzRmSwbw0j1bi9PyUxRhFIGVz7RroSlL5lPEmY2zsSKI-OXyg4yiBvdZb7Ao8elxppxlUCx0axOJQh0GISkkkdwkY0cDatzjrCtF3qSgxbtj4jWFUFBReGf7tvLsiimIADk-LT8OJwiIYjWFUFBRFDiEEJWyWwQC..&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.60fb2e8dGA9rv8</t>
-  </si>
-  <si>
-    <t>M3*14</t>
-  </si>
-  <si>
-    <t>https://detail.tmall.com/item.htm?id=40189700729&amp;pisk=g4DbTGfxZZbXwdGLGR-Pd7aWQGe_13JeBGZtxcBVX-eY1OnqRlWa_Iq1CzipmrRMiVGSW4V4kPPaClgUrmWwmm-6CcnLkRl4ul3r54fquAzZzdinRSWqXASmZ2od3xR0QOw0IRLe8pJemm2gBmMFhf_02kqHQsUYk-2R8rs29pJEm0s4DHoJLA7NYAEP6O3TM7p8XzEYXsUvV7EUXRBY6tCRyzqTBRFOHTI8AoIYDP3T20EaDiQYBRQ8woz8WRFOM3i8rlwTWVe9V0hA5TZe5znXAfiN9t-NV0U5BOH72F4ncZ6aVYrXLyobPeKjF9VbJmU5BejHiGa_rvLyN00oMqro5pT7eDh7Hog9p6z-N0H0T0AvPDwboWH8OCXiR-g_9xF5X9ymVb272vKNtzk7uVHbwHWQ_8HU9-hyZEPahkgtnqs1B2nrYxVoCe_8Sjr3eog9pUsrZ9zCpYf1VWX_Vy-WV1fGRqSipy5YzMFYqo8eV31HiSEucV-WVZ54Muqyh3t5tE1..&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.64dd2e8dxU097w</t>
   </si>
 </sst>
 </file>
@@ -897,7 +891,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -929,12 +923,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1248,10 +1236,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1371,7 +1359,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1769,24 +1757,6 @@
       </c>
       <c r="F28" s="8" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1" spans="1:6">
-      <c r="A29" s="11">
-        <v>30</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="11">
-        <v>1</v>
-      </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="12" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1816,7 +1786,6 @@
     <hyperlink ref="F26" r:id="rId18" display="https://detail.tmall.com/item.htm?id=641493636015&amp;pisk=g0L8smfSGxDuTJ8RiQo0K7BtZlhDRmAygLR_-9XuAKpvpCFkqMXhAwpwBMan4ajdJK6DrTAlP6sBKdtlF3X3Jep2ez4hPp0ddC-qTTfkrWCBcLUHqQXkDWQyo34hEY7pOdbKIA0iSQRPuwMiIYohfz71s9ZQK_1flwfpmQZu1QRP89N0dcxXaWp22_F5O9GAl6C7Aws5OZNf36q5dp65c-1O_w_BdTabl1CGNy1QVjEf_6UQNT1Cho1F9u_CVpOjM6WfNw_IMbHdh763JhDl0vlnfrmsfECR29UHbyBMIPXCCiB0RAwdNgEkNtUQREKmLVmCFcPcLaXyt_pE7z75v39RGw3LlapyNesv-xVfXZ6dfUjY1rsDe6I1RiFQRIQ20p1c5VwAgnOkAUJ89y1yrFjdQihQ8MbXSGt6eWlwGa1BLG8nQzWWOC8wjN3LlaIC4KYMW42aIOC3VjhYYkS5gnGBnZAbvlIfMOc-JkrF0j5AIjhYYkS5gsBiwXEUYilV.&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.66912e8dUnU3HP"/>
     <hyperlink ref="F27" r:id="rId19" display="https://item.taobao.com/item.htm?ft=t&amp;id=838884896678&amp;pisk=g1qnYWxwcyuI3ZxB-TmCR5KLzb_tpDiSa7K-w0hP7fl_p3BQpPDzw565dDerZ7Vt1JKRdJUME-NgZ46Iwbluw8zdBiIYdJiS40fADiIVjm_4ZvoyYVWrExxPB2P9ueWK4sCAqFpZR6nzwqxvclyZ1YDyaePr7GkI_YkEL7lZ7xkvT0ozaO0ZhvJEL0kE7RkK_Q-e43JZQvMHzU-e4O2Z1Yora7uFIRlsU0lrMVLEMuz4b_2blPe3kiNtK2c4LXyLel7n7ewIsK90jPvqGJJW43riK2qW2GMje2UzhqZLdgxsv-4ZbvVP06oa3P2x-kfDvbNQq4qrSLK8K0qL3zuGLMyixX0-BWjA1D4zOu0Q-L6bQDP_ljgF51Mgvo3oGVANTReiTq4u91tr9r2asqE96nna3PmG43LwuYcBVAW8bUTS8AMiMFrKgTNhK-d1IOYYF2kshjBGIUTS8AMiMOXMkugECxGA.&amp;spm=pc_detail.29232929%2Fevo365560b447259.202205.1.58337dd6pnj7sb"/>
     <hyperlink ref="F28" r:id="rId20" display="https://detail.tmall.com/item.htm?id=37753866337&amp;pisk=gW3aTSN5zFLapMWB5vUVUoGzTdzTjrJWnqwbijc01R2MD5TcujluGCpv6DPmhvdv6PG03xkQpZNXXKQqLAGoflMjf-V0Kvc15-TT0xlSex_XWcNcuvGYmxgqMZPmixdThCKI6fUYoL9S3UGt6F_n-mgNjycn97S0iHZGbel6OL9WPE-GtrJwFxaed1o3a740sobcxBPbNSjinobntJFYiOVcSBl3pJbgiS40x9VYwG40INXh-SVGmi2gI9AUGJVGsx4DTy2Lir2mnrcY1xDO8JrMtu9x4BLfIfeosJ7cz_hTj3ldcw7et5ZLEk4loWgU_lyosVG1jLPnR2r7As9u-bnIIWzyuw4a4cDatXpVzRmSwbw0j1bi9PyUxRhFIGVz7RroSlL5lPEmY2zsSKI-OXyg4yiBvdZb7Ao8elxppxlUCx0axOJQh0GISkkkdwkY0cDatzjrCtF3qSgxbtj4jWFUFBReGf7tvLsiimIADk-LT8OJwiIYjWFUFBRFDiEEJWyWwQC..&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.60fb2e8dGA9rv8"/>
-    <hyperlink ref="F29" r:id="rId21" display="https://detail.tmall.com/item.htm?id=40189700729&amp;pisk=g4DbTGfxZZbXwdGLGR-Pd7aWQGe_13JeBGZtxcBVX-eY1OnqRlWa_Iq1CzipmrRMiVGSW4V4kPPaClgUrmWwmm-6CcnLkRl4ul3r54fquAzZzdinRSWqXASmZ2od3xR0QOw0IRLe8pJemm2gBmMFhf_02kqHQsUYk-2R8rs29pJEm0s4DHoJLA7NYAEP6O3TM7p8XzEYXsUvV7EUXRBY6tCRyzqTBRFOHTI8AoIYDP3T20EaDiQYBRQ8woz8WRFOM3i8rlwTWVe9V0hA5TZe5znXAfiN9t-NV0U5BOH72F4ncZ6aVYrXLyobPeKjF9VbJmU5BejHiGa_rvLyN00oMqro5pT7eDh7Hog9p6z-N0H0T0AvPDwboWH8OCXiR-g_9xF5X9ymVb272vKNtzk7uVHbwHWQ_8HU9-hyZEPahkgtnqs1B2nrYxVoCe_8Sjr3eog9pUsrZ9zCpYf1VWX_Vy-WV1fGRqSipy5YzMFYqo8eV31HiSEucV-WVZ54Muqyh3t5tE1..&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.64dd2e8dxU097w"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17830"/>
+    <workbookView windowHeight="16420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -263,7 +263,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +272,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +299,24 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -432,12 +458,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -767,139 +799,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -907,34 +945,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1250,542 +1309,542 @@
   <sheetPr/>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="26.3636363636364" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6363636363636" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="47.0909090909091" style="1" customWidth="1"/>
-    <col min="6" max="6" width="66.0909090909091" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="26.3653846153846" style="3" customWidth="1"/>
+    <col min="3" max="3" width="31.6346153846154" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3"/>
+    <col min="5" max="5" width="47.0865384615385" style="3" customWidth="1"/>
+    <col min="6" max="6" width="66.0865384615385" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="17" spans="1:6">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:6">
-      <c r="A2" s="5">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="7">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:6">
-      <c r="A3" s="5">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="7">
         <v>1</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:6">
-      <c r="A4" s="5">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7">
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:6">
-      <c r="A5" s="5">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="7">
         <v>2</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:6">
-      <c r="A6" s="5">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="7">
         <v>1</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:6">
-      <c r="A7" s="5">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="7">
         <v>1</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:6">
-      <c r="A8" s="5">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="7">
         <v>2</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="7" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:6">
-      <c r="A9" s="5">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7">
         <v>3</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:6">
-      <c r="A10" s="5">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7">
         <v>3</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:6">
-      <c r="A11" s="5">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="7">
         <v>1</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="8" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" spans="1:6">
-      <c r="A12" s="5">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="12">
         <v>32</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="7" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:6">
-      <c r="A13" s="5">
+      <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="12">
         <v>4</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="8" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" spans="1:6">
-      <c r="A14" s="5">
+    <row r="14" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="A14" s="14">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="14">
         <v>4</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="8" t="s">
+      <c r="E14" s="14"/>
+      <c r="F14" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" spans="1:6">
-      <c r="A15" s="5">
+    <row r="15" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="A15" s="12">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="12">
         <v>4</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="8" t="s">
+      <c r="E15" s="12"/>
+      <c r="F15" s="17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" spans="1:6">
-      <c r="A16" s="5">
+    <row r="16" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="A16" s="12">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="12">
         <v>2</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="7" t="s">
+      <c r="E16" s="12"/>
+      <c r="F16" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:6">
-      <c r="A17" s="5">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="7">
         <v>10</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="8" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" spans="1:6">
-      <c r="A18" s="5">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="7">
         <v>2</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="8" t="s">
+      <c r="E18" s="7"/>
+      <c r="F18" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:6">
-      <c r="A19" s="5">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="7">
         <v>3</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="8" t="s">
+      <c r="E19" s="7"/>
+      <c r="F19" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:6">
-      <c r="A20" s="5">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="7">
         <v>1</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="8" t="s">
+      <c r="E20" s="7"/>
+      <c r="F20" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:6">
-      <c r="A21" s="5">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="7">
         <v>1</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="10"/>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" ht="15" customHeight="1" spans="1:6">
-      <c r="A22" s="5">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="7">
         <v>2</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="10"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:6">
-      <c r="A23" s="5">
+      <c r="A23" s="7">
         <v>24</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="7">
         <v>5</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="7" t="s">
+      <c r="E23" s="7"/>
+      <c r="F23" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" spans="1:6">
-      <c r="A24" s="5">
+      <c r="A24" s="7">
         <v>25</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="7">
         <v>3</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="7" t="s">
+      <c r="E24" s="7"/>
+      <c r="F24" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:6">
-      <c r="A25" s="5">
+      <c r="A25" s="7">
         <v>26</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="7">
         <v>2</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="7" t="s">
+      <c r="E25" s="7"/>
+      <c r="F25" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" spans="1:6">
-      <c r="A26" s="10">
+    <row r="26" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="A26" s="19">
         <v>27</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="19">
         <v>10</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="8" t="s">
+      <c r="E26" s="19"/>
+      <c r="F26" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:6">
-      <c r="A27" s="5">
+      <c r="A27" s="7">
         <v>28</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7">
         <v>1</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="7" t="s">
+      <c r="E27" s="7"/>
+      <c r="F27" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" spans="1:6">
-      <c r="A28" s="5">
+    <row r="28" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="A28" s="14">
         <v>29</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="14">
         <v>4</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1" spans="1:6">
-      <c r="A29" s="11">
+    <row r="29" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="A29" s="12">
         <v>30</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="12">
         <v>1</v>
       </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="12" t="s">
+      <c r="E29" s="12"/>
+      <c r="F29" s="21" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1833,7 +1892,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1850,7 +1909,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
